--- a/outputs-HGR-r202/p__Bacteroidota.xlsx
+++ b/outputs-HGR-r202/p__Bacteroidota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,11 +455,6 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -478,11 +473,6 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -501,11 +491,6 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -524,11 +509,6 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,11 +527,6 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -570,11 +545,6 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -593,11 +563,6 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -616,11 +581,6 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -639,11 +599,6 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -662,16 +617,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11829.fa</t>
+          <t>even_MAG-GUT11820.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -681,11 +631,6 @@
         <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -694,7 +639,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11847.fa</t>
+          <t>even_MAG-GUT11829.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -704,11 +649,6 @@
         <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -717,7 +657,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11977.fa</t>
+          <t>even_MAG-GUT11847.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -727,11 +667,6 @@
         <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -740,7 +675,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12030.fa</t>
+          <t>even_MAG-GUT11972.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -750,11 +685,6 @@
         <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -763,7 +693,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12049.fa</t>
+          <t>even_MAG-GUT11977.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -773,11 +703,6 @@
         <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -786,7 +711,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12051.fa</t>
+          <t>even_MAG-GUT12030.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -796,11 +721,6 @@
         <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -809,7 +729,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12063.fa</t>
+          <t>even_MAG-GUT12049.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -819,11 +739,6 @@
         <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -832,7 +747,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12082.fa</t>
+          <t>even_MAG-GUT12051.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -842,11 +757,6 @@
         <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -855,7 +765,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12095.fa</t>
+          <t>even_MAG-GUT12063.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -865,11 +775,6 @@
         <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -878,7 +783,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12230.fa</t>
+          <t>even_MAG-GUT12082.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -888,11 +793,6 @@
         <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -901,7 +801,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12257.fa</t>
+          <t>even_MAG-GUT12095.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -911,11 +811,6 @@
         <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -924,7 +819,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12300.fa</t>
+          <t>even_MAG-GUT12230.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -934,11 +829,6 @@
         <v>1</v>
       </c>
       <c r="D22" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -947,7 +837,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12797.fa</t>
+          <t>even_MAG-GUT12257.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -957,11 +847,6 @@
         <v>1</v>
       </c>
       <c r="D23" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -970,7 +855,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13150.fa</t>
+          <t>even_MAG-GUT12300.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -980,11 +865,6 @@
         <v>1</v>
       </c>
       <c r="D24" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -993,7 +873,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13451.fa</t>
+          <t>even_MAG-GUT12797.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1003,11 +883,6 @@
         <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1016,7 +891,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13856.fa</t>
+          <t>even_MAG-GUT13150.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1026,11 +901,6 @@
         <v>1</v>
       </c>
       <c r="D26" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1039,7 +909,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14027.fa</t>
+          <t>even_MAG-GUT13451.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1049,11 +919,6 @@
         <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1062,7 +927,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14364.fa</t>
+          <t>even_MAG-GUT13856.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1072,11 +937,6 @@
         <v>1</v>
       </c>
       <c r="D28" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1085,7 +945,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14645.fa</t>
+          <t>even_MAG-GUT14027.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1095,11 +955,6 @@
         <v>1</v>
       </c>
       <c r="D29" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1108,7 +963,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14705.fa</t>
+          <t>even_MAG-GUT14364.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1118,11 +973,6 @@
         <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1131,7 +981,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14711.fa</t>
+          <t>even_MAG-GUT14645.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1141,11 +991,6 @@
         <v>1</v>
       </c>
       <c r="D31" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1154,7 +999,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1694.fa</t>
+          <t>even_MAG-GUT14705.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1164,11 +1009,6 @@
         <v>1</v>
       </c>
       <c r="D32" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1177,7 +1017,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1761.fa</t>
+          <t>even_MAG-GUT14711.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1187,11 +1027,6 @@
         <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1200,7 +1035,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18031.fa</t>
+          <t>even_MAG-GUT1694.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1210,11 +1045,6 @@
         <v>1</v>
       </c>
       <c r="D34" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1223,7 +1053,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18037.fa</t>
+          <t>even_MAG-GUT1761.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1233,11 +1063,6 @@
         <v>1</v>
       </c>
       <c r="D35" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1246,7 +1071,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19155.fa</t>
+          <t>even_MAG-GUT18031.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1256,11 +1081,6 @@
         <v>1</v>
       </c>
       <c r="D36" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1269,7 +1089,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19423.fa</t>
+          <t>even_MAG-GUT18037.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1279,11 +1099,6 @@
         <v>1</v>
       </c>
       <c r="D37" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1292,7 +1107,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20126.fa</t>
+          <t>even_MAG-GUT19155.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1302,11 +1117,6 @@
         <v>1</v>
       </c>
       <c r="D38" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1315,7 +1125,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20293.fa</t>
+          <t>even_MAG-GUT19423.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1325,11 +1135,6 @@
         <v>1</v>
       </c>
       <c r="D39" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1338,7 +1143,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20461.fa</t>
+          <t>even_MAG-GUT20126.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1348,11 +1153,6 @@
         <v>1</v>
       </c>
       <c r="D40" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1361,7 +1161,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22496.fa</t>
+          <t>even_MAG-GUT20293.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1371,11 +1171,6 @@
         <v>1</v>
       </c>
       <c r="D41" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1384,7 +1179,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22619.fa</t>
+          <t>even_MAG-GUT20461.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1394,11 +1189,6 @@
         <v>1</v>
       </c>
       <c r="D42" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1407,7 +1197,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22830.fa</t>
+          <t>even_MAG-GUT22496.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1417,11 +1207,6 @@
         <v>1</v>
       </c>
       <c r="D43" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1430,7 +1215,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24184.fa</t>
+          <t>even_MAG-GUT22619.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1440,11 +1225,6 @@
         <v>1</v>
       </c>
       <c r="D44" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1453,7 +1233,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24574.fa</t>
+          <t>even_MAG-GUT22830.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1463,11 +1243,6 @@
         <v>1</v>
       </c>
       <c r="D45" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1476,7 +1251,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24670.fa</t>
+          <t>even_MAG-GUT24184.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1486,11 +1261,6 @@
         <v>1</v>
       </c>
       <c r="D46" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1499,7 +1269,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27127.fa</t>
+          <t>even_MAG-GUT24574.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1509,11 +1279,6 @@
         <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1522,7 +1287,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27129.fa</t>
+          <t>even_MAG-GUT24670.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1532,11 +1297,6 @@
         <v>1</v>
       </c>
       <c r="D48" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1545,7 +1305,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27169.fa</t>
+          <t>even_MAG-GUT27127.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1555,11 +1315,6 @@
         <v>1</v>
       </c>
       <c r="D49" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1568,7 +1323,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27309.fa</t>
+          <t>even_MAG-GUT27129.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1578,11 +1333,6 @@
         <v>1</v>
       </c>
       <c r="D50" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1591,7 +1341,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27329.fa</t>
+          <t>even_MAG-GUT27169.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1601,11 +1351,6 @@
         <v>1</v>
       </c>
       <c r="D51" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1614,7 +1359,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27936.fa</t>
+          <t>even_MAG-GUT27309.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1624,11 +1369,6 @@
         <v>1</v>
       </c>
       <c r="D52" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1637,7 +1377,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27968.fa</t>
+          <t>even_MAG-GUT27329.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1647,11 +1387,6 @@
         <v>1</v>
       </c>
       <c r="D53" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1660,7 +1395,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2841.fa</t>
+          <t>even_MAG-GUT27936.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1670,11 +1405,6 @@
         <v>1</v>
       </c>
       <c r="D54" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1683,7 +1413,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2847.fa</t>
+          <t>even_MAG-GUT27968.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1693,11 +1423,6 @@
         <v>1</v>
       </c>
       <c r="D55" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1706,7 +1431,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2867.fa</t>
+          <t>even_MAG-GUT2841.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1716,11 +1441,6 @@
         <v>1</v>
       </c>
       <c r="D56" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1729,7 +1449,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2873.fa</t>
+          <t>even_MAG-GUT2847.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1739,11 +1459,6 @@
         <v>1</v>
       </c>
       <c r="D57" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1752,7 +1467,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28915.fa</t>
+          <t>even_MAG-GUT2867.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1762,11 +1477,6 @@
         <v>1</v>
       </c>
       <c r="D58" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1775,7 +1485,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31002.fa</t>
+          <t>even_MAG-GUT2873.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1785,11 +1495,6 @@
         <v>1</v>
       </c>
       <c r="D59" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1798,7 +1503,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31343.fa</t>
+          <t>even_MAG-GUT28915.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1808,11 +1513,6 @@
         <v>1</v>
       </c>
       <c r="D60" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1821,7 +1521,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31540.fa</t>
+          <t>even_MAG-GUT31002.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1831,11 +1531,6 @@
         <v>1</v>
       </c>
       <c r="D61" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1844,7 +1539,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT317.fa</t>
+          <t>even_MAG-GUT31343.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1854,11 +1549,6 @@
         <v>1</v>
       </c>
       <c r="D62" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1867,7 +1557,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32169.fa</t>
+          <t>even_MAG-GUT31540.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1877,11 +1567,6 @@
         <v>1</v>
       </c>
       <c r="D63" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1890,7 +1575,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32170.fa</t>
+          <t>even_MAG-GUT317.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1900,11 +1585,6 @@
         <v>1</v>
       </c>
       <c r="D64" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1913,7 +1593,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32343.fa</t>
+          <t>even_MAG-GUT32169.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1923,11 +1603,6 @@
         <v>1</v>
       </c>
       <c r="D65" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1936,7 +1611,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32351.fa</t>
+          <t>even_MAG-GUT32170.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1946,11 +1621,6 @@
         <v>1</v>
       </c>
       <c r="D66" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1959,7 +1629,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32588.fa</t>
+          <t>even_MAG-GUT32343.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1969,11 +1639,6 @@
         <v>1</v>
       </c>
       <c r="D67" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1982,7 +1647,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32929.fa</t>
+          <t>even_MAG-GUT32351.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1992,11 +1657,6 @@
         <v>1</v>
       </c>
       <c r="D68" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2005,7 +1665,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33270.fa</t>
+          <t>even_MAG-GUT32588.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2015,11 +1675,6 @@
         <v>1</v>
       </c>
       <c r="D69" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2028,7 +1683,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33329.fa</t>
+          <t>even_MAG-GUT32929.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2038,11 +1693,6 @@
         <v>1</v>
       </c>
       <c r="D70" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2051,7 +1701,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35732.fa</t>
+          <t>even_MAG-GUT33270.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2061,11 +1711,6 @@
         <v>1</v>
       </c>
       <c r="D71" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2074,7 +1719,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35747.fa</t>
+          <t>even_MAG-GUT33329.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2084,11 +1729,6 @@
         <v>1</v>
       </c>
       <c r="D72" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2097,7 +1737,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35871.fa</t>
+          <t>even_MAG-GUT35732.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2107,11 +1747,6 @@
         <v>1</v>
       </c>
       <c r="D73" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2120,7 +1755,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35943.fa</t>
+          <t>even_MAG-GUT35747.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2130,11 +1765,6 @@
         <v>1</v>
       </c>
       <c r="D74" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2143,7 +1773,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36571.fa</t>
+          <t>even_MAG-GUT35871.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2153,11 +1783,6 @@
         <v>1</v>
       </c>
       <c r="D75" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2166,7 +1791,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36733.fa</t>
+          <t>even_MAG-GUT35943.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2176,11 +1801,6 @@
         <v>1</v>
       </c>
       <c r="D76" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2189,7 +1809,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36772.fa</t>
+          <t>even_MAG-GUT36571.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2199,11 +1819,6 @@
         <v>1</v>
       </c>
       <c r="D77" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2212,7 +1827,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36796.fa</t>
+          <t>even_MAG-GUT36733.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2222,11 +1837,6 @@
         <v>1</v>
       </c>
       <c r="D78" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2235,7 +1845,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36799.fa</t>
+          <t>even_MAG-GUT36772.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2245,11 +1855,6 @@
         <v>1</v>
       </c>
       <c r="D79" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2258,7 +1863,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37401.fa</t>
+          <t>even_MAG-GUT36796.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2268,11 +1873,6 @@
         <v>1</v>
       </c>
       <c r="D80" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2281,7 +1881,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT379.fa</t>
+          <t>even_MAG-GUT36799.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2291,11 +1891,6 @@
         <v>1</v>
       </c>
       <c r="D81" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2304,7 +1899,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37917.fa</t>
+          <t>even_MAG-GUT36814.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2314,11 +1909,6 @@
         <v>1</v>
       </c>
       <c r="D82" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2327,7 +1917,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38735.fa</t>
+          <t>even_MAG-GUT37401.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2337,11 +1927,6 @@
         <v>1</v>
       </c>
       <c r="D83" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2350,7 +1935,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39139.fa</t>
+          <t>even_MAG-GUT379.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2360,11 +1945,6 @@
         <v>1</v>
       </c>
       <c r="D84" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2373,7 +1953,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41097.fa</t>
+          <t>even_MAG-GUT37917.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2383,11 +1963,6 @@
         <v>1</v>
       </c>
       <c r="D85" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2396,7 +1971,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41378.fa</t>
+          <t>even_MAG-GUT38735.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2406,11 +1981,6 @@
         <v>1</v>
       </c>
       <c r="D86" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2419,7 +1989,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41860.fa</t>
+          <t>even_MAG-GUT39139.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2429,11 +1999,6 @@
         <v>1</v>
       </c>
       <c r="D87" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2442,7 +2007,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42780.fa</t>
+          <t>even_MAG-GUT40221.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2452,11 +2017,6 @@
         <v>1</v>
       </c>
       <c r="D88" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2465,7 +2025,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42852.fa</t>
+          <t>even_MAG-GUT41097.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2475,11 +2035,6 @@
         <v>1</v>
       </c>
       <c r="D89" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2488,7 +2043,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42865.fa</t>
+          <t>even_MAG-GUT41378.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2498,11 +2053,6 @@
         <v>1</v>
       </c>
       <c r="D90" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2511,7 +2061,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43110.fa</t>
+          <t>even_MAG-GUT41860.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2521,11 +2071,6 @@
         <v>1</v>
       </c>
       <c r="D91" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2534,7 +2079,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43251.fa</t>
+          <t>even_MAG-GUT42780.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2544,11 +2089,6 @@
         <v>1</v>
       </c>
       <c r="D92" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2557,7 +2097,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43377.fa</t>
+          <t>even_MAG-GUT42852.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2567,11 +2107,6 @@
         <v>1</v>
       </c>
       <c r="D93" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2580,7 +2115,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43378.fa</t>
+          <t>even_MAG-GUT42865.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2590,11 +2125,6 @@
         <v>1</v>
       </c>
       <c r="D94" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2603,7 +2133,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43648.fa</t>
+          <t>even_MAG-GUT43110.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2613,11 +2143,6 @@
         <v>1</v>
       </c>
       <c r="D95" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2626,7 +2151,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43957.fa</t>
+          <t>even_MAG-GUT43251.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2636,11 +2161,6 @@
         <v>1</v>
       </c>
       <c r="D96" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2649,7 +2169,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44774.fa</t>
+          <t>even_MAG-GUT43377.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2659,11 +2179,6 @@
         <v>1</v>
       </c>
       <c r="D97" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2672,7 +2187,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44944.fa</t>
+          <t>even_MAG-GUT43378.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2682,11 +2197,6 @@
         <v>1</v>
       </c>
       <c r="D98" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2695,7 +2205,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45122.fa</t>
+          <t>even_MAG-GUT43648.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2705,11 +2215,6 @@
         <v>1</v>
       </c>
       <c r="D99" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2718,7 +2223,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45214.fa</t>
+          <t>even_MAG-GUT43957.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2728,11 +2233,6 @@
         <v>1</v>
       </c>
       <c r="D100" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2741,7 +2241,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45263.fa</t>
+          <t>even_MAG-GUT44774.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2751,11 +2251,6 @@
         <v>1</v>
       </c>
       <c r="D101" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2764,7 +2259,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45396.fa</t>
+          <t>even_MAG-GUT44944.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2774,11 +2269,6 @@
         <v>1</v>
       </c>
       <c r="D102" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2787,7 +2277,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4552.fa</t>
+          <t>even_MAG-GUT45122.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2797,11 +2287,6 @@
         <v>1</v>
       </c>
       <c r="D103" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2810,7 +2295,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45670.fa</t>
+          <t>even_MAG-GUT45214.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2820,11 +2305,6 @@
         <v>1</v>
       </c>
       <c r="D104" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2833,7 +2313,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4585.fa</t>
+          <t>even_MAG-GUT45263.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2843,11 +2323,6 @@
         <v>1</v>
       </c>
       <c r="D105" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2856,7 +2331,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4600.fa</t>
+          <t>even_MAG-GUT45396.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2866,11 +2341,6 @@
         <v>1</v>
       </c>
       <c r="D106" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2879,7 +2349,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46167.fa</t>
+          <t>even_MAG-GUT4552.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2889,11 +2359,6 @@
         <v>1</v>
       </c>
       <c r="D107" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2902,7 +2367,7 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4634.fa</t>
+          <t>even_MAG-GUT45670.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2912,11 +2377,6 @@
         <v>1</v>
       </c>
       <c r="D108" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2925,7 +2385,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46378.fa</t>
+          <t>even_MAG-GUT4585.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2935,11 +2395,6 @@
         <v>1</v>
       </c>
       <c r="D109" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2948,7 +2403,7 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4651.fa</t>
+          <t>even_MAG-GUT4600.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2958,11 +2413,6 @@
         <v>1</v>
       </c>
       <c r="D110" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2971,7 +2421,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47205.fa</t>
+          <t>even_MAG-GUT46167.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2981,11 +2431,6 @@
         <v>1</v>
       </c>
       <c r="D111" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2994,7 +2439,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47800.fa</t>
+          <t>even_MAG-GUT4634.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -3004,11 +2449,6 @@
         <v>1</v>
       </c>
       <c r="D112" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3017,7 +2457,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48077.fa</t>
+          <t>even_MAG-GUT46378.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -3027,11 +2467,6 @@
         <v>1</v>
       </c>
       <c r="D113" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3040,7 +2475,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48276.fa</t>
+          <t>even_MAG-GUT4651.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3050,11 +2485,6 @@
         <v>1</v>
       </c>
       <c r="D114" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3063,7 +2493,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4969.fa</t>
+          <t>even_MAG-GUT47205.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -3073,11 +2503,6 @@
         <v>1</v>
       </c>
       <c r="D115" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3086,7 +2511,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4979.fa</t>
+          <t>even_MAG-GUT47330.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -3096,11 +2521,6 @@
         <v>1</v>
       </c>
       <c r="D116" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3109,7 +2529,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50478.fa</t>
+          <t>even_MAG-GUT47800.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3119,11 +2539,6 @@
         <v>1</v>
       </c>
       <c r="D117" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3132,7 +2547,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50483.fa</t>
+          <t>even_MAG-GUT48077.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -3142,11 +2557,6 @@
         <v>1</v>
       </c>
       <c r="D118" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3155,7 +2565,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50508.fa</t>
+          <t>even_MAG-GUT48276.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -3165,11 +2575,6 @@
         <v>1</v>
       </c>
       <c r="D119" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3178,7 +2583,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51557.fa</t>
+          <t>even_MAG-GUT4969.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -3188,11 +2593,6 @@
         <v>1</v>
       </c>
       <c r="D120" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3201,7 +2601,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51559.fa</t>
+          <t>even_MAG-GUT4979.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -3211,11 +2611,6 @@
         <v>1</v>
       </c>
       <c r="D121" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3224,7 +2619,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5249.fa</t>
+          <t>even_MAG-GUT50478.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3234,11 +2629,6 @@
         <v>1</v>
       </c>
       <c r="D122" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3247,7 +2637,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52992.fa</t>
+          <t>even_MAG-GUT50483.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3257,11 +2647,6 @@
         <v>1</v>
       </c>
       <c r="D123" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3270,7 +2655,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53689.fa</t>
+          <t>even_MAG-GUT50508.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -3280,11 +2665,6 @@
         <v>1</v>
       </c>
       <c r="D124" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3293,7 +2673,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5375.fa</t>
+          <t>even_MAG-GUT51557.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -3303,11 +2683,6 @@
         <v>1</v>
       </c>
       <c r="D125" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3316,7 +2691,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54574.fa</t>
+          <t>even_MAG-GUT51559.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -3326,11 +2701,6 @@
         <v>1</v>
       </c>
       <c r="D126" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3339,7 +2709,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54831.fa</t>
+          <t>even_MAG-GUT5249.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -3349,11 +2719,6 @@
         <v>1</v>
       </c>
       <c r="D127" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3362,7 +2727,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55210.fa</t>
+          <t>even_MAG-GUT52992.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -3372,11 +2737,6 @@
         <v>1</v>
       </c>
       <c r="D128" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3385,7 +2745,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55743.fa</t>
+          <t>even_MAG-GUT53689.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3395,11 +2755,6 @@
         <v>1</v>
       </c>
       <c r="D129" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3408,7 +2763,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56345.fa</t>
+          <t>even_MAG-GUT5375.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3418,11 +2773,6 @@
         <v>1</v>
       </c>
       <c r="D130" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3431,7 +2781,7 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56417.fa</t>
+          <t>even_MAG-GUT54574.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3441,11 +2791,6 @@
         <v>1</v>
       </c>
       <c r="D131" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3454,7 +2799,7 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57158.fa</t>
+          <t>even_MAG-GUT54831.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -3464,11 +2809,6 @@
         <v>1</v>
       </c>
       <c r="D132" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3477,7 +2817,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57729.fa</t>
+          <t>even_MAG-GUT55210.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3487,11 +2827,6 @@
         <v>1</v>
       </c>
       <c r="D133" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3500,7 +2835,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5848.fa</t>
+          <t>even_MAG-GUT55743.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3510,11 +2845,6 @@
         <v>1</v>
       </c>
       <c r="D134" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3523,7 +2853,7 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58938.fa</t>
+          <t>even_MAG-GUT56345.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3533,11 +2863,6 @@
         <v>1</v>
       </c>
       <c r="D135" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3546,7 +2871,7 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59149.fa</t>
+          <t>even_MAG-GUT56417.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -3556,11 +2881,6 @@
         <v>1</v>
       </c>
       <c r="D136" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3569,7 +2889,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT593.fa</t>
+          <t>even_MAG-GUT57158.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -3579,11 +2899,6 @@
         <v>1</v>
       </c>
       <c r="D137" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3592,7 +2907,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59599.fa</t>
+          <t>even_MAG-GUT57729.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -3602,11 +2917,6 @@
         <v>1</v>
       </c>
       <c r="D138" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3615,7 +2925,7 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62658.fa</t>
+          <t>even_MAG-GUT5848.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -3625,11 +2935,6 @@
         <v>1</v>
       </c>
       <c r="D139" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3638,7 +2943,7 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63164.fa</t>
+          <t>even_MAG-GUT58938.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -3648,11 +2953,6 @@
         <v>1</v>
       </c>
       <c r="D140" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3661,7 +2961,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63198.fa</t>
+          <t>even_MAG-GUT59149.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -3671,11 +2971,6 @@
         <v>1</v>
       </c>
       <c r="D141" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3684,7 +2979,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63214.fa</t>
+          <t>even_MAG-GUT593.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -3694,11 +2989,6 @@
         <v>1</v>
       </c>
       <c r="D142" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3707,7 +2997,7 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63219.fa</t>
+          <t>even_MAG-GUT59579.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -3717,11 +3007,6 @@
         <v>1</v>
       </c>
       <c r="D143" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3730,7 +3015,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63286.fa</t>
+          <t>even_MAG-GUT59599.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -3740,11 +3025,6 @@
         <v>1</v>
       </c>
       <c r="D144" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3753,7 +3033,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63373.fa</t>
+          <t>even_MAG-GUT62658.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -3763,11 +3043,6 @@
         <v>1</v>
       </c>
       <c r="D145" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3776,7 +3051,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63496.fa</t>
+          <t>even_MAG-GUT63164.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -3786,11 +3061,6 @@
         <v>1</v>
       </c>
       <c r="D146" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3799,7 +3069,7 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63586.fa</t>
+          <t>even_MAG-GUT63198.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -3809,11 +3079,6 @@
         <v>1</v>
       </c>
       <c r="D147" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3822,7 +3087,7 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63602.fa</t>
+          <t>even_MAG-GUT63214.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -3832,11 +3097,6 @@
         <v>1</v>
       </c>
       <c r="D148" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3845,7 +3105,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6384.fa</t>
+          <t>even_MAG-GUT63219.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -3855,11 +3115,6 @@
         <v>1</v>
       </c>
       <c r="D149" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3868,7 +3123,7 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6445.fa</t>
+          <t>even_MAG-GUT63286.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -3878,11 +3133,6 @@
         <v>1</v>
       </c>
       <c r="D150" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3891,7 +3141,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6489.fa</t>
+          <t>even_MAG-GUT63373.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -3901,11 +3151,6 @@
         <v>1</v>
       </c>
       <c r="D151" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3914,7 +3159,7 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66097.fa</t>
+          <t>even_MAG-GUT63496.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -3924,11 +3169,6 @@
         <v>1</v>
       </c>
       <c r="D152" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3937,7 +3177,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67224.fa</t>
+          <t>even_MAG-GUT63586.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -3947,11 +3187,6 @@
         <v>1</v>
       </c>
       <c r="D153" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3960,7 +3195,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68072.fa</t>
+          <t>even_MAG-GUT63602.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -3970,11 +3205,6 @@
         <v>1</v>
       </c>
       <c r="D154" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3983,7 +3213,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68311.fa</t>
+          <t>even_MAG-GUT6384.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -3993,11 +3223,6 @@
         <v>1</v>
       </c>
       <c r="D155" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4006,7 +3231,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68785.fa</t>
+          <t>even_MAG-GUT6445.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -4016,11 +3241,6 @@
         <v>1</v>
       </c>
       <c r="D156" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4029,7 +3249,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6955.fa</t>
+          <t>even_MAG-GUT6489.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -4039,11 +3259,6 @@
         <v>1</v>
       </c>
       <c r="D157" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4052,7 +3267,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6968.fa</t>
+          <t>even_MAG-GUT65795.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -4062,11 +3277,6 @@
         <v>1</v>
       </c>
       <c r="D158" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4075,7 +3285,7 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7012.fa</t>
+          <t>even_MAG-GUT66097.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -4085,11 +3295,6 @@
         <v>1</v>
       </c>
       <c r="D159" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4098,7 +3303,7 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70404.fa</t>
+          <t>even_MAG-GUT66701.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -4108,11 +3313,6 @@
         <v>1</v>
       </c>
       <c r="D160" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4121,7 +3321,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70913.fa</t>
+          <t>even_MAG-GUT67224.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -4131,11 +3331,6 @@
         <v>1</v>
       </c>
       <c r="D161" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4144,7 +3339,7 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71577.fa</t>
+          <t>even_MAG-GUT68072.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -4154,11 +3349,6 @@
         <v>1</v>
       </c>
       <c r="D162" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4167,7 +3357,7 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT722.fa</t>
+          <t>even_MAG-GUT68311.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -4177,11 +3367,6 @@
         <v>1</v>
       </c>
       <c r="D163" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4190,7 +3375,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72293.fa</t>
+          <t>even_MAG-GUT68785.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -4200,11 +3385,6 @@
         <v>1</v>
       </c>
       <c r="D164" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4213,7 +3393,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72929.fa</t>
+          <t>even_MAG-GUT69465.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -4223,11 +3403,6 @@
         <v>1</v>
       </c>
       <c r="D165" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4236,7 +3411,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73862.fa</t>
+          <t>even_MAG-GUT6955.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -4246,11 +3421,6 @@
         <v>1</v>
       </c>
       <c r="D166" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4259,7 +3429,7 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74916.fa</t>
+          <t>even_MAG-GUT6968.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -4269,11 +3439,6 @@
         <v>1</v>
       </c>
       <c r="D167" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4282,7 +3447,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76034.fa</t>
+          <t>even_MAG-GUT7012.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -4292,11 +3457,6 @@
         <v>1</v>
       </c>
       <c r="D168" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4305,7 +3465,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT761.fa</t>
+          <t>even_MAG-GUT70404.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -4315,11 +3475,6 @@
         <v>1</v>
       </c>
       <c r="D169" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4328,7 +3483,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76518.fa</t>
+          <t>even_MAG-GUT70913.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -4338,11 +3493,6 @@
         <v>1</v>
       </c>
       <c r="D170" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4351,7 +3501,7 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77597.fa</t>
+          <t>even_MAG-GUT71577.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -4361,11 +3511,6 @@
         <v>1</v>
       </c>
       <c r="D171" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4374,7 +3519,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77633.fa</t>
+          <t>even_MAG-GUT722.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -4384,11 +3529,6 @@
         <v>1</v>
       </c>
       <c r="D172" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4397,7 +3537,7 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78579.fa</t>
+          <t>even_MAG-GUT72293.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -4407,11 +3547,6 @@
         <v>1</v>
       </c>
       <c r="D173" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4420,7 +3555,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78910.fa</t>
+          <t>even_MAG-GUT72929.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -4430,11 +3565,6 @@
         <v>1</v>
       </c>
       <c r="D174" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4443,7 +3573,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78923.fa</t>
+          <t>even_MAG-GUT73862.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -4453,11 +3583,6 @@
         <v>1</v>
       </c>
       <c r="D175" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4466,7 +3591,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80330.fa</t>
+          <t>even_MAG-GUT74916.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -4476,11 +3601,6 @@
         <v>1</v>
       </c>
       <c r="D176" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4489,7 +3609,7 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81123.fa</t>
+          <t>even_MAG-GUT76034.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -4499,11 +3619,6 @@
         <v>1</v>
       </c>
       <c r="D177" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4512,7 +3627,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81409.fa</t>
+          <t>even_MAG-GUT761.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -4522,11 +3637,6 @@
         <v>1</v>
       </c>
       <c r="D178" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4535,7 +3645,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81646.fa</t>
+          <t>even_MAG-GUT76518.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -4545,11 +3655,6 @@
         <v>1</v>
       </c>
       <c r="D179" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4558,7 +3663,7 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81936.fa</t>
+          <t>even_MAG-GUT77597.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -4568,11 +3673,6 @@
         <v>1</v>
       </c>
       <c r="D180" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4581,7 +3681,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82089.fa</t>
+          <t>even_MAG-GUT77633.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -4591,11 +3691,6 @@
         <v>1</v>
       </c>
       <c r="D181" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4604,7 +3699,7 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82177.fa</t>
+          <t>even_MAG-GUT78579.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -4614,11 +3709,6 @@
         <v>1</v>
       </c>
       <c r="D182" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4627,7 +3717,7 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82472.fa</t>
+          <t>even_MAG-GUT78910.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -4637,11 +3727,6 @@
         <v>1</v>
       </c>
       <c r="D183" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4650,7 +3735,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82505.fa</t>
+          <t>even_MAG-GUT78923.fa</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -4660,11 +3745,6 @@
         <v>1</v>
       </c>
       <c r="D184" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4673,7 +3753,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82571.fa</t>
+          <t>even_MAG-GUT80232.fa</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -4683,11 +3763,6 @@
         <v>1</v>
       </c>
       <c r="D185" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4696,7 +3771,7 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8267.fa</t>
+          <t>even_MAG-GUT80330.fa</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -4706,11 +3781,6 @@
         <v>1</v>
       </c>
       <c r="D186" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4719,7 +3789,7 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82998.fa</t>
+          <t>even_MAG-GUT81123.fa</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -4729,11 +3799,6 @@
         <v>1</v>
       </c>
       <c r="D187" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4742,7 +3807,7 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83643.fa</t>
+          <t>even_MAG-GUT81409.fa</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -4752,11 +3817,6 @@
         <v>1</v>
       </c>
       <c r="D188" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4765,7 +3825,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT838.fa</t>
+          <t>even_MAG-GUT81646.fa</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -4775,11 +3835,6 @@
         <v>1</v>
       </c>
       <c r="D189" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4788,7 +3843,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84166.fa</t>
+          <t>even_MAG-GUT81936.fa</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -4798,11 +3853,6 @@
         <v>1</v>
       </c>
       <c r="D190" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4811,7 +3861,7 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84304.fa</t>
+          <t>even_MAG-GUT82089.fa</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -4821,11 +3871,6 @@
         <v>1</v>
       </c>
       <c r="D191" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4834,7 +3879,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85906.fa</t>
+          <t>even_MAG-GUT82177.fa</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -4844,11 +3889,6 @@
         <v>1</v>
       </c>
       <c r="D192" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4857,7 +3897,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86112.fa</t>
+          <t>even_MAG-GUT82314.fa</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -4867,11 +3907,6 @@
         <v>1</v>
       </c>
       <c r="D193" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4880,21 +3915,214 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT82472.fa</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82505.fa</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82571.fa</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT8267.fa</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82998.fa</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT83643.fa</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT838.fa</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT84166.fa</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT84304.fa</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85906.fa</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86112.fa</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT86504.fa</t>
         </is>
       </c>
-      <c r="B194" t="n">
-        <v>1</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1</v>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>

--- a/outputs-HGR-r202/p__Bacteroidota.xlsx
+++ b/outputs-HGR-r202/p__Bacteroidota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:E205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -635,6 +685,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +708,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,6 +731,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +754,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -707,6 +777,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -725,6 +800,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -743,6 +823,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -761,6 +846,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -779,6 +869,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -797,6 +892,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -815,6 +915,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -833,6 +938,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -851,6 +961,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -869,6 +984,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -887,6 +1007,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -905,6 +1030,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -923,6 +1053,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -941,6 +1076,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -959,6 +1099,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -977,6 +1122,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -995,6 +1145,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1013,6 +1168,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1031,6 +1191,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1049,6 +1214,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1067,6 +1237,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1085,6 +1260,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1103,6 +1283,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1121,6 +1306,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1139,6 +1329,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1157,6 +1352,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1175,6 +1375,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1193,6 +1398,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1211,6 +1421,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1229,6 +1444,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1247,6 +1467,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1265,6 +1490,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1283,6 +1513,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1301,6 +1536,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1319,6 +1559,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1337,6 +1582,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1355,6 +1605,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1373,6 +1628,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1391,6 +1651,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1409,6 +1674,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1427,6 +1697,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1445,6 +1720,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1463,6 +1743,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1481,6 +1766,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1499,6 +1789,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1517,6 +1812,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1535,6 +1835,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1553,6 +1858,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1571,6 +1881,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1589,6 +1904,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1607,6 +1927,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1625,6 +1950,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1643,6 +1973,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1661,6 +1996,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1679,6 +2019,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1697,6 +2042,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1715,6 +2065,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1733,6 +2088,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1751,6 +2111,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1769,6 +2134,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -1787,6 +2157,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -1805,6 +2180,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -1823,6 +2203,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -1841,6 +2226,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -1859,6 +2249,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -1877,6 +2272,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -1895,6 +2295,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -1913,6 +2318,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -1931,6 +2341,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -1949,6 +2364,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -1967,6 +2387,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -1985,6 +2410,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2003,6 +2433,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2021,6 +2456,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2039,6 +2479,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2057,6 +2502,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2075,6 +2525,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2093,6 +2548,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2111,6 +2571,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2129,6 +2594,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2147,6 +2617,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2165,6 +2640,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2183,6 +2663,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2201,6 +2686,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2219,6 +2709,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2237,6 +2732,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2255,6 +2755,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2273,6 +2778,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2291,6 +2801,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2309,6 +2824,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2327,6 +2847,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -2345,6 +2870,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -2363,6 +2893,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -2381,6 +2916,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -2399,6 +2939,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -2417,6 +2962,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -2435,6 +2985,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -2453,6 +3008,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -2471,6 +3031,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -2489,6 +3054,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -2507,6 +3077,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -2525,6 +3100,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -2543,6 +3123,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -2561,6 +3146,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -2579,6 +3169,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -2597,6 +3192,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -2615,6 +3215,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -2633,6 +3238,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -2651,6 +3261,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -2669,6 +3284,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -2687,6 +3307,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -2705,6 +3330,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -2723,6 +3353,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -2741,6 +3376,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -2759,6 +3399,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -2777,6 +3422,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -2795,6 +3445,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -2813,6 +3468,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -2831,6 +3491,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -2849,6 +3514,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -2867,6 +3537,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -2885,6 +3560,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -2903,6 +3583,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -2921,6 +3606,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -2939,6 +3629,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -2957,6 +3652,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -2975,6 +3675,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -2993,6 +3698,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -3011,6 +3721,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -3029,6 +3744,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -3047,6 +3767,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -3065,6 +3790,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -3083,6 +3813,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -3101,6 +3836,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -3119,6 +3859,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -3137,6 +3882,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -3155,6 +3905,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -3173,6 +3928,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -3191,6 +3951,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -3209,6 +3974,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -3227,6 +3997,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -3245,6 +4020,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -3263,6 +4043,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -3281,6 +4066,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -3299,6 +4089,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -3317,6 +4112,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -3335,6 +4135,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -3353,6 +4158,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -3371,6 +4181,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -3389,6 +4204,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -3407,6 +4227,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -3425,6 +4250,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -3443,6 +4273,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -3461,6 +4296,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -3479,6 +4319,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -3497,6 +4342,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -3515,6 +4365,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -3533,6 +4388,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -3551,6 +4411,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -3569,6 +4434,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -3587,6 +4457,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -3605,6 +4480,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -3623,6 +4503,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -3641,6 +4526,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -3659,6 +4549,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -3677,6 +4572,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -3695,6 +4595,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -3713,6 +4618,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -3731,6 +4641,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -3749,6 +4664,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -3767,6 +4687,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -3785,6 +4710,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -3803,6 +4733,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -3821,6 +4756,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -3839,6 +4779,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -3857,6 +4802,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -3875,6 +4825,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -3893,6 +4848,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -3911,6 +4871,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -3929,6 +4894,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -3947,6 +4917,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -3965,6 +4940,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -3983,6 +4963,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -4001,6 +4986,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -4019,6 +5009,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -4037,6 +5032,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -4055,6 +5055,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -4073,6 +5078,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -4091,6 +5101,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -4109,6 +5124,11 @@
           <t>c__Bacteroidia</t>
         </is>
       </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -4123,6 +5143,11 @@
         <v>1</v>
       </c>
       <c r="D205" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>

--- a/outputs-HGR-r202/p__Bacteroidota.xlsx
+++ b/outputs-HGR-r202/p__Bacteroidota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -468,17 +463,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>940.7100831360158</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -491,17 +483,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>1020.107469590683</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -514,17 +503,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>512.5996566849851</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -537,17 +523,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+        <v>1567.407885326539</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -560,17 +543,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>994.1954215288288</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -583,17 +563,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+        <v>817.8188740378419</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -606,17 +583,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+        <v>894.5023493622557</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -629,17 +603,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+        <v>306.4465908478679</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -652,17 +623,14 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
+        <v>235.0501249942913</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -675,17 +643,14 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
+        <v>413.5113270968255</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -698,17 +663,14 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+        <v>751.1947883203125</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -721,17 +683,14 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>281.1584828453802</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -744,17 +703,14 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>762.9823943251495</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -767,17 +723,14 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>376.5050537751013</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -790,17 +743,14 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
+        <v>1480.127857362994</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -813,17 +763,14 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+        <v>709.9282597382469</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -836,17 +783,14 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
+        <v>812.919080192213</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -859,17 +803,14 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
+        <v>414.6520297883132</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -882,17 +823,14 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
+        <v>703.2504974709668</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -905,17 +843,14 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
+        <v>409.8925769057899</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -928,17 +863,14 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
+        <v>554.4679894714841</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -951,17 +883,14 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
+        <v>791.2458105714934</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -974,17 +903,14 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
+        <v>1536.745635460168</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -997,17 +923,14 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
+        <v>1040.065104445093</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1020,17 +943,14 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
+        <v>943.7504894824269</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1043,17 +963,14 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
+        <v>847.7524251008876</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1066,17 +983,14 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
+        <v>727.8525588436285</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1089,17 +1003,14 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
+        <v>1438.845430706572</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1112,17 +1023,14 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
+        <v>1040.684799605526</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1135,17 +1043,14 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
+        <v>510.5634374387287</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1158,17 +1063,14 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
+        <v>703.2135394355155</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1181,17 +1083,14 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
+        <v>528.4072859881148</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1204,17 +1103,14 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
+        <v>943.9917871200005</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1227,17 +1123,14 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
+        <v>1159.622850987418</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1250,17 +1143,14 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
+        <v>683.1192017213161</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1273,17 +1163,14 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
+        <v>804.4218519558467</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1296,17 +1183,14 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
+        <v>801.9684302265578</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1319,17 +1203,14 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
+        <v>975.8609936856376</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1342,17 +1223,14 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
+        <v>966.2354659488876</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1365,17 +1243,14 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
+        <v>1273.274295176325</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1388,17 +1263,14 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
+        <v>986.3592512341845</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1411,17 +1283,14 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
+        <v>1065.173258256468</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1434,17 +1303,14 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
+        <v>960.5298585515432</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1457,17 +1323,14 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
+        <v>983.3231619900714</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1480,17 +1343,14 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
+        <v>1100.906399694476</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1503,17 +1363,14 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
+        <v>1097.836294143649</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1526,17 +1383,14 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
+        <v>1162.718976625409</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1549,17 +1403,14 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
+        <v>1299.494271152814</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1572,17 +1423,14 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
+        <v>1528.737416699355</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1595,17 +1443,14 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
+        <v>1247.810454918847</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1618,17 +1463,14 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
+        <v>932.5026656644845</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1641,17 +1483,14 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
+        <v>1074.430325470899</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1664,17 +1503,14 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
+        <v>964.0437451343446</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1687,17 +1523,14 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
+        <v>838.7113026238039</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1710,17 +1543,14 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
+        <v>472.1056098220498</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1733,17 +1563,14 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
+        <v>884.5277914657624</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1756,17 +1583,14 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1</v>
+        <v>674.7732349690893</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1779,17 +1603,14 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1</v>
+        <v>953.2418698203223</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1802,17 +1623,14 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1</v>
+        <v>398.6874020682699</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1825,17 +1643,14 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1</v>
+        <v>822.5922229406201</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1848,17 +1663,14 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
+        <v>1146.525301878137</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D62" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1871,17 +1683,14 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
+        <v>941.6365899078478</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1894,17 +1703,14 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
+        <v>570.1712041306332</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1917,17 +1723,14 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
+        <v>204.7359142760488</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1940,17 +1743,14 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
+        <v>394.0529523265101</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1963,17 +1763,14 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
+        <v>1626.196616467559</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1986,17 +1783,14 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1</v>
+        <v>1666.507939092557</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2009,17 +1803,14 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
+        <v>676.6050143876801</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D69" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2032,17 +1823,14 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1</v>
+        <v>824.9386187972268</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2055,17 +1843,14 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
+        <v>524.4676541328683</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2078,17 +1863,14 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1</v>
+        <v>605.229223772729</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D72" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2101,17 +1883,14 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
+        <v>1061.784742096813</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D73" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2124,17 +1903,14 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
+        <v>628.3497207843677</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D74" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2147,17 +1923,14 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1</v>
+        <v>687.3740865151276</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D75" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2170,17 +1943,14 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1</v>
+        <v>911.5175541531694</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D76" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2193,17 +1963,14 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1</v>
+        <v>902.4293359212779</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D77" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2216,17 +1983,14 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
+        <v>1570.72645014213</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D78" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2239,17 +2003,14 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1</v>
+        <v>873.8170383060599</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D79" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2262,17 +2023,14 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1</v>
+        <v>991.140195591478</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D80" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2285,17 +2043,14 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1</v>
+        <v>1014.487903238396</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D81" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2308,17 +2063,14 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1</v>
+        <v>436.4455665989649</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D82" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2331,17 +2083,14 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1</v>
+        <v>653.2802187863874</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D83" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2354,17 +2103,14 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1</v>
+        <v>701.6488899691005</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D84" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2377,17 +2123,14 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1</v>
+        <v>1400.595397220547</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D85" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2400,17 +2143,14 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1</v>
+        <v>981.0797891882346</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D86" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2423,17 +2163,14 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1</v>
+        <v>659.7278906799004</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D87" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2446,17 +2183,14 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1</v>
+        <v>341.7905209991168</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D88" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2469,17 +2203,14 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1</v>
+        <v>805.3205019049803</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D89" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2492,17 +2223,14 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1</v>
+        <v>1394.731955036793</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D90" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2515,17 +2243,14 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1</v>
+        <v>957.4265304112644</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2538,17 +2263,14 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1</v>
+        <v>1029.024779779994</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D92" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2561,17 +2283,14 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1</v>
+        <v>1329.461518288307</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D93" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2584,17 +2303,14 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1</v>
+        <v>1775.921012613374</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D94" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2607,17 +2323,14 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1</v>
+        <v>929.9862379334506</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D95" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2630,17 +2343,14 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1</v>
+        <v>762.9820196130806</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D96" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2653,17 +2363,14 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1</v>
+        <v>1401.160360968806</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D97" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2676,17 +2383,14 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1</v>
+        <v>1548.981433689763</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D98" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2699,17 +2403,14 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1</v>
+        <v>864.1917892694914</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D99" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2722,17 +2423,14 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1</v>
+        <v>960.2410285319743</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D100" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2745,17 +2443,14 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1</v>
+        <v>767.6678674260522</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D101" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2768,17 +2463,14 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1</v>
+        <v>1073.391925325722</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D102" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2791,17 +2483,14 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1</v>
+        <v>978.279139031647</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D103" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2814,17 +2503,14 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1</v>
+        <v>1101.134647483419</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D104" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2837,17 +2523,14 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1</v>
+        <v>662.4679227243164</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D105" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2860,17 +2543,14 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1</v>
+        <v>870.7715806977246</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D106" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2883,17 +2563,14 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1</v>
+        <v>1305.530116752077</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D107" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2906,17 +2583,14 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1</v>
+        <v>646.5827518057947</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D108" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2929,17 +2603,14 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1</v>
+        <v>1050.625344393733</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D109" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2952,17 +2623,14 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1</v>
+        <v>1521.54002131229</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D110" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2975,17 +2643,14 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1</v>
+        <v>1039.857228489649</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D111" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2998,17 +2663,14 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1</v>
+        <v>1175.988218888527</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D112" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3021,17 +2683,14 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1</v>
+        <v>718.6487792838914</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D113" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3044,17 +2703,14 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1</v>
+        <v>946.5440223487619</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D114" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3067,17 +2723,14 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1</v>
+        <v>603.7918419150192</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D115" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3086,21 +2739,18 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47330.fa</t>
+          <t>even_MAG-GUT47800.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1</v>
+        <v>1049.700149233569</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D116" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3109,21 +2759,18 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47800.fa</t>
+          <t>even_MAG-GUT48077.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1</v>
+        <v>1417.693922959833</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D117" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3132,21 +2779,18 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48077.fa</t>
+          <t>even_MAG-GUT48276.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1</v>
+        <v>884.0662723108576</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D118" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3155,21 +2799,18 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48276.fa</t>
+          <t>even_MAG-GUT4969.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1</v>
+        <v>998.6066543374066</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D119" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3178,21 +2819,18 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4969.fa</t>
+          <t>even_MAG-GUT4979.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1</v>
+        <v>899.0979338345314</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D120" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3201,21 +2839,18 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4979.fa</t>
+          <t>even_MAG-GUT50478.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1</v>
+        <v>893.8617605154043</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D121" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3224,21 +2859,18 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50478.fa</t>
+          <t>even_MAG-GUT50483.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1</v>
+        <v>1652.984671648599</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D122" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3247,21 +2879,18 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50483.fa</t>
+          <t>even_MAG-GUT50508.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1</v>
+        <v>1200.465742302401</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D123" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3270,21 +2899,18 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50508.fa</t>
+          <t>even_MAG-GUT51557.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1</v>
+        <v>991.0835857966556</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D124" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3293,21 +2919,18 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51557.fa</t>
+          <t>even_MAG-GUT51559.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1</v>
+        <v>956.5259764262983</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D125" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3316,21 +2939,18 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51559.fa</t>
+          <t>even_MAG-GUT5249.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1</v>
+        <v>705.2237874307668</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D126" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3339,21 +2959,18 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5249.fa</t>
+          <t>even_MAG-GUT52992.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1</v>
+        <v>965.5254170411329</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D127" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3362,21 +2979,18 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52992.fa</t>
+          <t>even_MAG-GUT53689.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1</v>
+        <v>1322.795945489536</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D128" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3385,21 +2999,18 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53689.fa</t>
+          <t>even_MAG-GUT5375.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1</v>
+        <v>1011.023694206083</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D129" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3408,21 +3019,18 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5375.fa</t>
+          <t>even_MAG-GUT54574.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1</v>
+        <v>1277.577344277041</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D130" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3431,21 +3039,18 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54574.fa</t>
+          <t>even_MAG-GUT54831.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1</v>
+        <v>1264.228841360826</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D131" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3454,21 +3059,18 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54831.fa</t>
+          <t>even_MAG-GUT55210.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1</v>
+        <v>757.2093944755663</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D132" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3477,21 +3079,18 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55210.fa</t>
+          <t>even_MAG-GUT55743.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1</v>
+        <v>1340.044919490515</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D133" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3500,21 +3099,18 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55743.fa</t>
+          <t>even_MAG-GUT56345.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1</v>
+        <v>1036.362725598793</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D134" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3523,21 +3119,18 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56345.fa</t>
+          <t>even_MAG-GUT56417.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1</v>
+        <v>1041.120580331022</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D135" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3546,21 +3139,18 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56417.fa</t>
+          <t>even_MAG-GUT57158.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1</v>
+        <v>705.1343279567805</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D136" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3569,21 +3159,18 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57158.fa</t>
+          <t>even_MAG-GUT57729.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1</v>
+        <v>1334.345824354847</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D137" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3592,21 +3179,18 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57729.fa</t>
+          <t>even_MAG-GUT5848.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1</v>
+        <v>1209.17400889571</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D138" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3615,21 +3199,18 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5848.fa</t>
+          <t>even_MAG-GUT58938.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1</v>
+        <v>1107.867415240441</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D139" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3638,21 +3219,18 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58938.fa</t>
+          <t>even_MAG-GUT59149.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1</v>
+        <v>1505.304238070146</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D140" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3661,21 +3239,18 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59149.fa</t>
+          <t>even_MAG-GUT593.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1</v>
+        <v>995.2734433534517</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D141" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3684,21 +3259,18 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT593.fa</t>
+          <t>even_MAG-GUT59579.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1</v>
+        <v>541.8809379005679</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D142" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3707,21 +3279,18 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59579.fa</t>
+          <t>even_MAG-GUT59599.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1</v>
+        <v>796.1468992350622</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D143" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3730,21 +3299,18 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59599.fa</t>
+          <t>even_MAG-GUT62658.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1</v>
+        <v>1017.649370910662</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D144" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3753,21 +3319,18 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62658.fa</t>
+          <t>even_MAG-GUT63164.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1</v>
+        <v>644.4593654220757</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D145" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3776,21 +3339,18 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63164.fa</t>
+          <t>even_MAG-GUT63198.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1</v>
+        <v>240.4430005381292</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D146" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3799,21 +3359,18 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63198.fa</t>
+          <t>even_MAG-GUT63214.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1</v>
+        <v>229.792131569146</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D147" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3822,21 +3379,18 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63214.fa</t>
+          <t>even_MAG-GUT63219.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1</v>
+        <v>160.3636662816432</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D148" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3845,21 +3399,18 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63219.fa</t>
+          <t>even_MAG-GUT63286.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1</v>
+        <v>202.5770873359107</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D149" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3868,21 +3419,18 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63286.fa</t>
+          <t>even_MAG-GUT63373.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1</v>
+        <v>187.8272754387994</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D150" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3891,21 +3439,18 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63373.fa</t>
+          <t>even_MAG-GUT63496.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1</v>
+        <v>210.0657832764681</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D151" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3914,21 +3459,18 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63496.fa</t>
+          <t>even_MAG-GUT63586.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1</v>
+        <v>213.5381511697819</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D152" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3937,21 +3479,18 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63586.fa</t>
+          <t>even_MAG-GUT63602.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1</v>
+        <v>206.13603754839</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D153" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3960,21 +3499,18 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63602.fa</t>
+          <t>even_MAG-GUT6384.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1</v>
+        <v>665.7933691006003</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D154" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3983,21 +3519,18 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6384.fa</t>
+          <t>even_MAG-GUT6445.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1</v>
+        <v>669.1000958114394</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D155" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4006,21 +3539,18 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6445.fa</t>
+          <t>even_MAG-GUT6489.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1</v>
+        <v>819.4559894832357</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D156" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4029,21 +3559,18 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6489.fa</t>
+          <t>even_MAG-GUT65795.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1</v>
+        <v>341.7905209991168</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D157" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4052,21 +3579,18 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65795.fa</t>
+          <t>even_MAG-GUT66097.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1</v>
+        <v>1393.403126166745</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D158" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4075,21 +3599,18 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66097.fa</t>
+          <t>even_MAG-GUT66701.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1</v>
+        <v>626.7049028262707</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D159" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4098,21 +3619,18 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66701.fa</t>
+          <t>even_MAG-GUT67224.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1</v>
+        <v>1223.067921357313</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D160" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4121,21 +3639,18 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67224.fa</t>
+          <t>even_MAG-GUT68072.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1</v>
+        <v>650.900279762069</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D161" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4144,21 +3659,18 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68072.fa</t>
+          <t>even_MAG-GUT68311.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1</v>
+        <v>843.6483068717321</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D162" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4167,21 +3679,18 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68311.fa</t>
+          <t>even_MAG-GUT68785.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1</v>
+        <v>1255.067816048423</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D163" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4190,21 +3699,18 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68785.fa</t>
+          <t>even_MAG-GUT6955.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1</v>
+        <v>585.9217212748904</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D164" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4213,21 +3719,18 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69465.fa</t>
+          <t>even_MAG-GUT6968.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1</v>
+        <v>484.3945693989643</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D165" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4236,21 +3739,18 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6955.fa</t>
+          <t>even_MAG-GUT7012.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1</v>
+        <v>734.8910762789531</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D166" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4259,21 +3759,18 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6968.fa</t>
+          <t>even_MAG-GUT70404.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1</v>
+        <v>1192.381225124557</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D167" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4282,21 +3779,18 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7012.fa</t>
+          <t>even_MAG-GUT70913.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1</v>
+        <v>282.8221575982066</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D168" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4305,21 +3799,18 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70404.fa</t>
+          <t>even_MAG-GUT71577.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1</v>
+        <v>588.052856816623</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D169" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4328,21 +3819,18 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70913.fa</t>
+          <t>even_MAG-GUT722.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1</v>
+        <v>819.5509024042865</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D170" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4351,21 +3839,18 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71577.fa</t>
+          <t>even_MAG-GUT72293.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1</v>
+        <v>1025.361728726997</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D171" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4374,21 +3859,18 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT722.fa</t>
+          <t>even_MAG-GUT72929.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1</v>
+        <v>696.3647989233734</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D172" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4397,21 +3879,18 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72293.fa</t>
+          <t>even_MAG-GUT73862.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1</v>
+        <v>817.8337192190766</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D173" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4420,21 +3899,18 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72929.fa</t>
+          <t>even_MAG-GUT74916.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1</v>
+        <v>1542.330063643076</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D174" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4443,21 +3919,18 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73862.fa</t>
+          <t>even_MAG-GUT76034.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1</v>
+        <v>816.7879119964066</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D175" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4466,21 +3939,18 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74916.fa</t>
+          <t>even_MAG-GUT761.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1</v>
+        <v>909.2714463173031</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D176" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4489,21 +3959,18 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76034.fa</t>
+          <t>even_MAG-GUT76518.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1</v>
+        <v>1005.353519782279</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D177" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4512,21 +3979,18 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT761.fa</t>
+          <t>even_MAG-GUT77597.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1</v>
+        <v>816.5936468080999</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D178" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4535,21 +3999,18 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76518.fa</t>
+          <t>even_MAG-GUT77633.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1</v>
+        <v>1124.257560619152</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D179" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4558,21 +4019,18 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77597.fa</t>
+          <t>even_MAG-GUT78579.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1</v>
+        <v>1382.875903485075</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D180" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4581,21 +4039,18 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77633.fa</t>
+          <t>even_MAG-GUT78910.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1</v>
+        <v>678.8979574815105</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D181" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4604,21 +4059,18 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78579.fa</t>
+          <t>even_MAG-GUT78923.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1</v>
+        <v>621.8474989721299</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D182" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4627,21 +4079,18 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78910.fa</t>
+          <t>even_MAG-GUT80330.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1</v>
+        <v>978.2832674283861</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D183" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4650,21 +4099,18 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78923.fa</t>
+          <t>even_MAG-GUT81123.fa</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1</v>
+        <v>819.9406178053766</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D184" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4673,21 +4119,18 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80232.fa</t>
+          <t>even_MAG-GUT81409.fa</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1</v>
+        <v>903.2933501435682</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D185" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4696,21 +4139,18 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80330.fa</t>
+          <t>even_MAG-GUT81646.fa</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1</v>
+        <v>853.80684288159</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D186" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4719,21 +4159,18 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81123.fa</t>
+          <t>even_MAG-GUT81936.fa</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1</v>
+        <v>717.7178046603601</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D187" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4742,21 +4179,18 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81409.fa</t>
+          <t>even_MAG-GUT82089.fa</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1</v>
+        <v>573.6697169370589</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D188" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4765,21 +4199,18 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81646.fa</t>
+          <t>even_MAG-GUT82177.fa</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1</v>
+        <v>903.5317637222165</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D189" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4788,21 +4219,18 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81936.fa</t>
+          <t>even_MAG-GUT82314.fa</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1</v>
+        <v>589.5525904715898</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D190" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4811,21 +4239,18 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82089.fa</t>
+          <t>even_MAG-GUT82472.fa</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1</v>
+        <v>745.5231815568388</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D191" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4834,21 +4259,18 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82177.fa</t>
+          <t>even_MAG-GUT82505.fa</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1</v>
+        <v>769.7626311109059</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D192" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4857,21 +4279,18 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82314.fa</t>
+          <t>even_MAG-GUT82571.fa</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1</v>
+        <v>879.2910046118834</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D193" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4880,21 +4299,18 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82472.fa</t>
+          <t>even_MAG-GUT8267.fa</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1</v>
+        <v>651.9899484980203</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D194" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4903,21 +4319,18 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82505.fa</t>
+          <t>even_MAG-GUT82998.fa</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1</v>
+        <v>962.8445073312932</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D195" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4926,21 +4339,18 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82571.fa</t>
+          <t>even_MAG-GUT83643.fa</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1</v>
+        <v>626.5414806350823</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D196" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4949,21 +4359,18 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8267.fa</t>
+          <t>even_MAG-GUT838.fa</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1</v>
+        <v>932.379717464057</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D197" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4972,21 +4379,18 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82998.fa</t>
+          <t>even_MAG-GUT84166.fa</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1</v>
+        <v>587.1853064334866</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D198" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4995,21 +4399,18 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83643.fa</t>
+          <t>even_MAG-GUT84304.fa</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1</v>
+        <v>776.1646347205692</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D199" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -5018,21 +4419,18 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT838.fa</t>
+          <t>even_MAG-GUT85906.fa</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1</v>
+        <v>843.2143494207189</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D200" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -5041,21 +4439,18 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84166.fa</t>
+          <t>even_MAG-GUT86112.fa</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1</v>
+        <v>816.7285878641676</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D201" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -5064,90 +4459,18 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84304.fa</t>
+          <t>even_MAG-GUT86504.fa</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1</v>
+        <v>1292.286070977325</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
       </c>
       <c r="D202" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85906.fa</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>1</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1</v>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86112.fa</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>1</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1</v>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86504.fa</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>1</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1</v>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>

--- a/outputs-HGR-r202/p__Bacteroidota.xlsx
+++ b/outputs-HGR-r202/p__Bacteroidota.xlsx
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749327.0567568461</v>
+        <v>67905.65109610179</v>
       </c>
       <c r="C2" t="n">
-        <v>749327.0567568461</v>
+        <v>67905.65109610179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>847787.7352146992</v>
+        <v>73193.557380921</v>
       </c>
       <c r="C3" t="n">
-        <v>847787.7352146992</v>
+        <v>73193.557380921</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>422312.6710896491</v>
+        <v>39165.1066667001</v>
       </c>
       <c r="C4" t="n">
-        <v>422312.6710896491</v>
+        <v>39165.1066667001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>932747.1994384512</v>
+        <v>84699.118569169</v>
       </c>
       <c r="C5" t="n">
-        <v>932747.1994384512</v>
+        <v>84699.118569169</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1239960.611032693</v>
+        <v>110588.2944461431</v>
       </c>
       <c r="C6" t="n">
-        <v>1239960.611032693</v>
+        <v>110588.2944461431</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792614.0067327892</v>
+        <v>72369.12939650672</v>
       </c>
       <c r="C7" t="n">
-        <v>792614.0067327892</v>
+        <v>72369.12939650672</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>657548.9758592906</v>
+        <v>60397.2341762767</v>
       </c>
       <c r="C8" t="n">
-        <v>657548.9758592906</v>
+        <v>60397.2341762767</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>711124.0741711953</v>
+        <v>65150.21898170887</v>
       </c>
       <c r="C9" t="n">
-        <v>711124.0741711953</v>
+        <v>65150.21898170887</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>292465.5984864198</v>
+        <v>23066.86700135467</v>
       </c>
       <c r="C10" t="n">
-        <v>292465.5984864198</v>
+        <v>23066.86700135467</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>226428.9964934133</v>
+        <v>17717.67684637735</v>
       </c>
       <c r="C11" t="n">
-        <v>226428.9964934133</v>
+        <v>17717.67684637735</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>384041.2605712245</v>
+        <v>32505.95317151024</v>
       </c>
       <c r="C12" t="n">
-        <v>384041.2605712245</v>
+        <v>32505.95317151024</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>624238.624192142</v>
+        <v>52058.19446293369</v>
       </c>
       <c r="C13" t="n">
-        <v>624238.624192142</v>
+        <v>52058.19446293369</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>271185.913603795</v>
+        <v>21189.98669684852</v>
       </c>
       <c r="C14" t="n">
-        <v>271185.913603795</v>
+        <v>21189.98669684852</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>651183.115425956</v>
+        <v>58095.40349846886</v>
       </c>
       <c r="C15" t="n">
-        <v>651183.115425956</v>
+        <v>58095.40349846886</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>332808.7786983273</v>
+        <v>27013.68048559494</v>
       </c>
       <c r="C16" t="n">
-        <v>332808.7786983273</v>
+        <v>27013.68048559494</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1153186.816430487</v>
+        <v>101073.267813532</v>
       </c>
       <c r="C17" t="n">
-        <v>1153186.816430487</v>
+        <v>101073.267813532</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593552.9272756557</v>
+        <v>49283.94393255952</v>
       </c>
       <c r="C18" t="n">
-        <v>593552.9272756557</v>
+        <v>49283.94393255952</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>646801.0165740834</v>
+        <v>59506.847078554</v>
       </c>
       <c r="C19" t="n">
-        <v>646801.0165740834</v>
+        <v>59506.847078554</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>370612.3113438329</v>
+        <v>29685.27370463213</v>
       </c>
       <c r="C20" t="n">
-        <v>370612.3113438329</v>
+        <v>29685.27370463213</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>598485.1585394809</v>
+        <v>49520.32236126419</v>
       </c>
       <c r="C21" t="n">
-        <v>598485.1585394809</v>
+        <v>49520.32236126419</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -928,10 +928,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>372988.8900181102</v>
+        <v>29894.57438419963</v>
       </c>
       <c r="C22" t="n">
-        <v>372988.8900181102</v>
+        <v>29894.57438419963</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>482438.1634228695</v>
+        <v>39252.83387026402</v>
       </c>
       <c r="C23" t="n">
-        <v>482438.1634228695</v>
+        <v>39252.83387026402</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>653038.8597632217</v>
+        <v>54403.00567060386</v>
       </c>
       <c r="C24" t="n">
-        <v>653038.8597632217</v>
+        <v>54403.00567060386</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1177994.660247675</v>
+        <v>105801.5797147371</v>
       </c>
       <c r="C25" t="n">
-        <v>1177994.660247675</v>
+        <v>105801.5797147371</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>788503.139842234</v>
+        <v>71339.1659734445</v>
       </c>
       <c r="C26" t="n">
-        <v>788503.139842234</v>
+        <v>71339.1659734445</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1043,10 +1043,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>747458.0373700791</v>
+        <v>67896.98186911637</v>
       </c>
       <c r="C27" t="n">
-        <v>747458.0373700791</v>
+        <v>67896.98186911637</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>671797.3895958478</v>
+        <v>61183.79969146918</v>
       </c>
       <c r="C28" t="n">
-        <v>671797.3895958478</v>
+        <v>61183.79969146918</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>611229.4954522917</v>
+        <v>50810.80117270374</v>
       </c>
       <c r="C29" t="n">
-        <v>611229.4954522917</v>
+        <v>50810.80117270374</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1105726.805426874</v>
+        <v>99127.46422298886</v>
       </c>
       <c r="C30" t="n">
-        <v>1105726.805426874</v>
+        <v>99127.46422298886</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>833158.5875633931</v>
+        <v>75843.81613017296</v>
       </c>
       <c r="C31" t="n">
-        <v>833158.5875633931</v>
+        <v>75843.81613017296</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1158,10 +1158,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>445645.5054417741</v>
+        <v>36332.59203208941</v>
       </c>
       <c r="C32" t="n">
-        <v>445645.5054417741</v>
+        <v>36332.59203208941</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>564720.7168452278</v>
+        <v>51398.66064342616</v>
       </c>
       <c r="C33" t="n">
-        <v>564720.7168452278</v>
+        <v>51398.66064342616</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>436398.7253975909</v>
+        <v>40178.9029730582</v>
       </c>
       <c r="C34" t="n">
-        <v>436398.7253975909</v>
+        <v>40178.9029730582</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>750612.2193235089</v>
+        <v>68757.71794197195</v>
       </c>
       <c r="C35" t="n">
-        <v>750612.2193235089</v>
+        <v>68757.71794197195</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>909422.2078398003</v>
+        <v>83468.54927842415</v>
       </c>
       <c r="C36" t="n">
-        <v>909422.2078398003</v>
+        <v>83468.54927842415</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>606626.6398677824</v>
+        <v>51248.47576303684</v>
       </c>
       <c r="C37" t="n">
-        <v>606626.6398677824</v>
+        <v>51248.47576303684</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>696842.0496916017</v>
+        <v>57359.31465322868</v>
       </c>
       <c r="C38" t="n">
-        <v>696842.0496916017</v>
+        <v>57359.31465322868</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>645830.6550840377</v>
+        <v>58731.03242855672</v>
       </c>
       <c r="C39" t="n">
-        <v>645830.6550840377</v>
+        <v>58731.03242855672</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>771970.0489726482</v>
+        <v>70635.62191432854</v>
       </c>
       <c r="C40" t="n">
-        <v>771970.0489726482</v>
+        <v>70635.62191432854</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>769835.0300860216</v>
+        <v>70518.71945376169</v>
       </c>
       <c r="C41" t="n">
-        <v>769835.0300860216</v>
+        <v>70518.71945376169</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>439010.7198068823</v>
+        <v>39920.69226271851</v>
       </c>
       <c r="C42" t="n">
-        <v>439010.7198068823</v>
+        <v>39920.69226271851</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1411,10 +1411,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1046485.41838592</v>
+        <v>91577.61075577191</v>
       </c>
       <c r="C43" t="n">
-        <v>1046485.41838592</v>
+        <v>91577.61075577191</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>782962.901022841</v>
+        <v>71788.82768363153</v>
       </c>
       <c r="C44" t="n">
-        <v>782962.901022841</v>
+        <v>71788.82768363153</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>849424.0612902542</v>
+        <v>77414.52605282418</v>
       </c>
       <c r="C45" t="n">
-        <v>849424.0612902542</v>
+        <v>77414.52605282418</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>765896.0721945054</v>
+        <v>69681.57502312309</v>
       </c>
       <c r="C46" t="n">
-        <v>765896.0721945054</v>
+        <v>69681.57502312309</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>806998.7684703349</v>
+        <v>68212.96526417175</v>
       </c>
       <c r="C47" t="n">
-        <v>806998.7684703349</v>
+        <v>68212.96526417175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1526,10 +1526,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>905473.3747327805</v>
+        <v>79764.50772234084</v>
       </c>
       <c r="C48" t="n">
-        <v>905473.3747327805</v>
+        <v>79764.50772234084</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>874668.5228885249</v>
+        <v>79355.72391763185</v>
       </c>
       <c r="C49" t="n">
-        <v>874668.5228885249</v>
+        <v>79355.72391763185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>925366.5564069515</v>
+        <v>83960.36887207469</v>
       </c>
       <c r="C50" t="n">
-        <v>925366.5564069515</v>
+        <v>83960.36887207469</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>223384.9244337288</v>
+        <v>16962.77760204664</v>
       </c>
       <c r="C51" t="n">
-        <v>223384.9244337288</v>
+        <v>16962.77760204664</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1618,10 +1618,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>973356.7413158878</v>
+        <v>88397.73340768811</v>
       </c>
       <c r="C52" t="n">
-        <v>973356.7413158878</v>
+        <v>88397.73340768811</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1222641.082218762</v>
+        <v>107545.166681499</v>
       </c>
       <c r="C53" t="n">
-        <v>1222641.082218762</v>
+        <v>107545.166681499</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1664,10 +1664,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>938423.8679613109</v>
+        <v>85208.26532271258</v>
       </c>
       <c r="C54" t="n">
-        <v>938423.8679613109</v>
+        <v>85208.26532271258</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>695957.2995474823</v>
+        <v>60633.73809919927</v>
       </c>
       <c r="C55" t="n">
-        <v>695957.2995474823</v>
+        <v>60633.73809919927</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1710,10 +1710,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>803411.9910317631</v>
+        <v>70275.01936019123</v>
       </c>
       <c r="C56" t="n">
-        <v>803411.9910317631</v>
+        <v>70275.01936019123</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1733,10 +1733,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>764716.6062471692</v>
+        <v>70129.34928717818</v>
       </c>
       <c r="C57" t="n">
-        <v>764716.6062471692</v>
+        <v>70129.34928717818</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>679066.6879036243</v>
+        <v>61752.43376200722</v>
       </c>
       <c r="C58" t="n">
-        <v>679066.6879036243</v>
+        <v>61752.43376200722</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1779,10 +1779,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>431752.8139070845</v>
+        <v>34701.44575113602</v>
       </c>
       <c r="C59" t="n">
-        <v>431752.8139070845</v>
+        <v>34701.44575113602</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>698810.8219928042</v>
+        <v>64055.64349226565</v>
       </c>
       <c r="C60" t="n">
-        <v>698810.8219928042</v>
+        <v>64055.64349226565</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>537764.5247877847</v>
+        <v>49333.2239827181</v>
       </c>
       <c r="C61" t="n">
-        <v>537764.5247877847</v>
+        <v>49333.2239827181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>777558.5491184745</v>
+        <v>66123.56957367076</v>
       </c>
       <c r="C62" t="n">
-        <v>777558.5491184745</v>
+        <v>66123.56957367076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>419271.5825587981</v>
+        <v>33162.06661080947</v>
       </c>
       <c r="C63" t="n">
-        <v>419271.5825587981</v>
+        <v>33162.06661080947</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>818544.0671396819</v>
+        <v>75317.54734357617</v>
       </c>
       <c r="C64" t="n">
-        <v>818544.0671396819</v>
+        <v>75317.54734357617</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1917,10 +1917,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>654114.0229155009</v>
+        <v>59878.83018627299</v>
       </c>
       <c r="C65" t="n">
-        <v>654114.0229155009</v>
+        <v>59878.83018627299</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>969576.1413221722</v>
+        <v>83564.28816651076</v>
       </c>
       <c r="C66" t="n">
-        <v>969576.1413221722</v>
+        <v>83564.28816651076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>746149.64040133</v>
+        <v>68102.0406819054</v>
       </c>
       <c r="C67" t="n">
-        <v>746149.64040133</v>
+        <v>68102.0406819054</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>463221.1098878643</v>
+        <v>43021.98922957428</v>
       </c>
       <c r="C68" t="n">
-        <v>463221.1098878643</v>
+        <v>43021.98922957428</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>209667.8304266953</v>
+        <v>16551.33985230955</v>
       </c>
       <c r="C69" t="n">
-        <v>209667.8304266953</v>
+        <v>16551.33985230955</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2032,10 +2032,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>369446.4367872498</v>
+        <v>31266.47242804569</v>
       </c>
       <c r="C70" t="n">
-        <v>369446.4367872498</v>
+        <v>31266.47242804569</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1270566.274493207</v>
+        <v>113692.4853462521</v>
       </c>
       <c r="C71" t="n">
-        <v>1270566.274493207</v>
+        <v>113692.4853462521</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1298069.080918793</v>
+        <v>116690.1780206788</v>
       </c>
       <c r="C72" t="n">
-        <v>1298069.080918793</v>
+        <v>116690.1780206788</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2101,10 +2101,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>549118.326389219</v>
+        <v>50758.11171014952</v>
       </c>
       <c r="C73" t="n">
-        <v>549118.326389219</v>
+        <v>50758.11171014952</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>659106.178846673</v>
+        <v>60497.6260898958</v>
       </c>
       <c r="C74" t="n">
-        <v>659106.178846673</v>
+        <v>60497.6260898958</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2147,10 +2147,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>491317.4545445155</v>
+        <v>41604.18157734786</v>
       </c>
       <c r="C75" t="n">
-        <v>491317.4545445155</v>
+        <v>41604.18157734786</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2170,10 +2170,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>492968.2748121008</v>
+        <v>45550.79008764555</v>
       </c>
       <c r="C76" t="n">
-        <v>492968.2748121008</v>
+        <v>45550.79008764555</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>847414.4235699539</v>
+        <v>76798.55357326289</v>
       </c>
       <c r="C77" t="n">
-        <v>847414.4235699539</v>
+        <v>76798.55357326289</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>566657.465539498</v>
+        <v>49266.66068258397</v>
       </c>
       <c r="C78" t="n">
-        <v>566657.465539498</v>
+        <v>49266.66068258397</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>545746.0727918888</v>
+        <v>50544.83248683423</v>
       </c>
       <c r="C79" t="n">
-        <v>545746.0727918888</v>
+        <v>50544.83248683423</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2262,10 +2262,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>722462.0634085364</v>
+        <v>66265.05411022273</v>
       </c>
       <c r="C80" t="n">
-        <v>722462.0634085364</v>
+        <v>66265.05411022273</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2285,10 +2285,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>721668.4055864194</v>
+        <v>65951.82244066415</v>
       </c>
       <c r="C81" t="n">
-        <v>721668.4055864194</v>
+        <v>65951.82244066415</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2308,10 +2308,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1213787.601023908</v>
+        <v>110249.7293780574</v>
       </c>
       <c r="C82" t="n">
-        <v>1213787.601023908</v>
+        <v>110249.7293780574</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2331,10 +2331,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>715924.4315408042</v>
+        <v>60304.3183558452</v>
       </c>
       <c r="C83" t="n">
-        <v>715924.4315408042</v>
+        <v>60304.3183558452</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2354,10 +2354,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>783490.3832937544</v>
+        <v>71844.21657648405</v>
       </c>
       <c r="C84" t="n">
-        <v>783490.3832937544</v>
+        <v>71844.21657648405</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>830246.7215395317</v>
+        <v>70178.67382996617</v>
       </c>
       <c r="C85" t="n">
-        <v>830246.7215395317</v>
+        <v>70178.67382996617</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>400195.3348767065</v>
+        <v>34136.1546221551</v>
       </c>
       <c r="C86" t="n">
-        <v>400195.3348767065</v>
+        <v>34136.1546221551</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>529512.7360729731</v>
+        <v>49049.15666328229</v>
       </c>
       <c r="C87" t="n">
-        <v>529512.7360729731</v>
+        <v>49049.15666328229</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>564320.740228392</v>
+        <v>52183.29329278656</v>
       </c>
       <c r="C88" t="n">
-        <v>564320.740228392</v>
+        <v>52183.29329278656</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2469,10 +2469,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1075905.662710673</v>
+        <v>97513.74296061642</v>
       </c>
       <c r="C89" t="n">
-        <v>1075905.662710673</v>
+        <v>97513.74296061642</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2492,10 +2492,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>756394.5338225114</v>
+        <v>69295.82519644467</v>
       </c>
       <c r="C90" t="n">
-        <v>756394.5338225114</v>
+        <v>69295.82519644467</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>535090.0742616444</v>
+        <v>49410.3800377679</v>
       </c>
       <c r="C91" t="n">
-        <v>535090.0742616444</v>
+        <v>49410.3800377679</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>290384.8479809493</v>
+        <v>27135.39302952997</v>
       </c>
       <c r="C92" t="n">
-        <v>290384.8479809493</v>
+        <v>27135.39302952997</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>614770.9913210232</v>
+        <v>55891.79336203021</v>
       </c>
       <c r="C93" t="n">
-        <v>614770.9913210232</v>
+        <v>55891.79336203021</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2584,10 +2584,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1122317.313600712</v>
+        <v>98111.43995626728</v>
       </c>
       <c r="C94" t="n">
-        <v>1122317.313600712</v>
+        <v>98111.43995626728</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2607,10 +2607,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>752748.4282795569</v>
+        <v>69207.36309854029</v>
       </c>
       <c r="C95" t="n">
-        <v>752748.4282795569</v>
+        <v>69207.36309854029</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2630,10 +2630,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>812330.5708221298</v>
+        <v>74236.23049060239</v>
       </c>
       <c r="C96" t="n">
-        <v>812330.5708221298</v>
+        <v>74236.23049060239</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2653,10 +2653,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1039490.263260873</v>
+        <v>92876.95573243032</v>
       </c>
       <c r="C97" t="n">
-        <v>1039490.263260873</v>
+        <v>92876.95573243032</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2676,10 +2676,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1352689.661588992</v>
+        <v>121771.4790011945</v>
       </c>
       <c r="C98" t="n">
-        <v>1352689.661588992</v>
+        <v>121771.4790011945</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>740731.2505283026</v>
+        <v>67984.88150240023</v>
       </c>
       <c r="C99" t="n">
-        <v>740731.2505283026</v>
+        <v>67984.88150240023</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2722,10 +2722,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>604408.5436195773</v>
+        <v>54995.44070482436</v>
       </c>
       <c r="C100" t="n">
-        <v>604408.5436195773</v>
+        <v>54995.44070482436</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1048475.834638637</v>
+        <v>95240.46435380219</v>
       </c>
       <c r="C101" t="n">
-        <v>1048475.834638637</v>
+        <v>95240.46435380219</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1199541.485721057</v>
+        <v>108237.139418384</v>
       </c>
       <c r="C102" t="n">
-        <v>1199541.485721057</v>
+        <v>108237.139418384</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>689826.2470043598</v>
+        <v>63051.56647486657</v>
       </c>
       <c r="C103" t="n">
-        <v>689826.2470043598</v>
+        <v>63051.56647486657</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>763465.2224541189</v>
+        <v>69461.87612946099</v>
       </c>
       <c r="C104" t="n">
-        <v>763465.2224541189</v>
+        <v>69461.87612946099</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>307565.3227253004</v>
+        <v>26739.55805255588</v>
       </c>
       <c r="C105" t="n">
-        <v>307565.3227253004</v>
+        <v>26739.55805255588</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2860,10 +2860,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>619905.6787864729</v>
+        <v>57102.23356690003</v>
       </c>
       <c r="C106" t="n">
-        <v>619905.6787864729</v>
+        <v>57102.23356690003</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>847057.4111829483</v>
+        <v>77643.81779224958</v>
       </c>
       <c r="C107" t="n">
-        <v>847057.4111829483</v>
+        <v>77643.81779224958</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>778636.0265238096</v>
+        <v>71146.66895468466</v>
       </c>
       <c r="C108" t="n">
-        <v>778636.0265238096</v>
+        <v>71146.66895468466</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>874256.8945870202</v>
+        <v>79199.67423992099</v>
       </c>
       <c r="C109" t="n">
-        <v>874256.8945870202</v>
+        <v>79199.67423992099</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2952,10 +2952,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>540189.0194398828</v>
+        <v>49380.39008831598</v>
       </c>
       <c r="C110" t="n">
-        <v>540189.0194398828</v>
+        <v>49380.39008831598</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2975,10 +2975,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>692071.692589311</v>
+        <v>63357.29832664835</v>
       </c>
       <c r="C111" t="n">
-        <v>692071.692589311</v>
+        <v>63357.29832664835</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2998,10 +2998,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>969801.0850255701</v>
+        <v>85121.72121618192</v>
       </c>
       <c r="C112" t="n">
-        <v>969801.0850255701</v>
+        <v>85121.72121618192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3021,10 +3021,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>521582.0749672905</v>
+        <v>48295.07377544105</v>
       </c>
       <c r="C113" t="n">
-        <v>521582.0749672905</v>
+        <v>48295.07377544105</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3044,10 +3044,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>764451.1703094494</v>
+        <v>67128.96693721652</v>
       </c>
       <c r="C114" t="n">
-        <v>764451.1703094494</v>
+        <v>67128.96693721652</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3067,10 +3067,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1182082.737964347</v>
+        <v>106670.6147086774</v>
       </c>
       <c r="C115" t="n">
-        <v>1182082.737964347</v>
+        <v>106670.6147086774</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3090,10 +3090,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>831252.6104819585</v>
+        <v>75967.03922772621</v>
       </c>
       <c r="C116" t="n">
-        <v>831252.6104819585</v>
+        <v>75967.03922772621</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>895190.7029257445</v>
+        <v>80870.57402421083</v>
       </c>
       <c r="C117" t="n">
-        <v>895190.7029257445</v>
+        <v>80870.57402421083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3136,10 +3136,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>573504.9492869875</v>
+        <v>52549.45163590689</v>
       </c>
       <c r="C118" t="n">
-        <v>573504.9492869875</v>
+        <v>52549.45163590689</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>717869.9682389799</v>
+        <v>65009.08104934983</v>
       </c>
       <c r="C119" t="n">
-        <v>717869.9682389799</v>
+        <v>65009.08104934983</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3182,10 +3182,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>486760.4095763857</v>
+        <v>44929.07807005417</v>
       </c>
       <c r="C120" t="n">
-        <v>486760.4095763857</v>
+        <v>44929.07807005417</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3205,10 +3205,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>483095.8501605286</v>
+        <v>39571.78912641454</v>
       </c>
       <c r="C121" t="n">
-        <v>483095.8501605286</v>
+        <v>39571.78912641454</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>827550.0756411657</v>
+        <v>75794.37598059201</v>
       </c>
       <c r="C122" t="n">
-        <v>827550.0756411657</v>
+        <v>75794.37598059201</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3251,10 +3251,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1119007.196515349</v>
+        <v>101397.5032301961</v>
       </c>
       <c r="C123" t="n">
-        <v>1119007.196515349</v>
+        <v>101397.5032301961</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3274,10 +3274,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>709236.317379693</v>
+        <v>64855.24677031893</v>
       </c>
       <c r="C124" t="n">
-        <v>709236.317379693</v>
+        <v>64855.24677031893</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3297,10 +3297,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1192432.513606715</v>
+        <v>107410.1948566198</v>
       </c>
       <c r="C125" t="n">
-        <v>1192432.513606715</v>
+        <v>107410.1948566198</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3320,10 +3320,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>791348.4472456381</v>
+        <v>71720.37697895947</v>
       </c>
       <c r="C126" t="n">
-        <v>791348.4472456381</v>
+        <v>71720.37697895947</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>771603.5808185998</v>
+        <v>68000.97691177874</v>
       </c>
       <c r="C127" t="n">
-        <v>771603.5808185998</v>
+        <v>68000.97691177874</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3366,10 +3366,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>654394.5697740235</v>
+        <v>57149.64056970718</v>
       </c>
       <c r="C128" t="n">
-        <v>654394.5697740235</v>
+        <v>57149.64056970718</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3389,10 +3389,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1263342.723736166</v>
+        <v>114383.3931068766</v>
       </c>
       <c r="C129" t="n">
-        <v>1263342.723736166</v>
+        <v>114383.3931068766</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>871330.685085465</v>
+        <v>77165.03504119143</v>
       </c>
       <c r="C130" t="n">
-        <v>871330.685085465</v>
+        <v>77165.03504119143</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3435,10 +3435,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>836272.8754523076</v>
+        <v>72127.778506006</v>
       </c>
       <c r="C131" t="n">
-        <v>836272.8754523076</v>
+        <v>72127.778506006</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3458,10 +3458,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>825162.6709133425</v>
+        <v>71078.99206197784</v>
       </c>
       <c r="C132" t="n">
-        <v>825162.6709133425</v>
+        <v>71078.99206197784</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3481,10 +3481,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>643613.6633729041</v>
+        <v>54495.17798056405</v>
       </c>
       <c r="C133" t="n">
-        <v>643613.6633729041</v>
+        <v>54495.17798056405</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3504,10 +3504,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>701063.910394793</v>
+        <v>61543.01363975549</v>
       </c>
       <c r="C134" t="n">
-        <v>701063.910394793</v>
+        <v>61543.01363975549</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3527,10 +3527,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1019956.864172323</v>
+        <v>92069.27195887016</v>
       </c>
       <c r="C135" t="n">
-        <v>1019956.864172323</v>
+        <v>92069.27195887016</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>757494.2592249459</v>
+        <v>66142.90495925587</v>
       </c>
       <c r="C136" t="n">
-        <v>757494.2592249459</v>
+        <v>66142.90495925587</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1013540.636894335</v>
+        <v>89893.00596761383</v>
       </c>
       <c r="C137" t="n">
-        <v>1013540.636894335</v>
+        <v>89893.00596761383</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3596,10 +3596,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1018295.251668596</v>
+        <v>88161.28237609607</v>
       </c>
       <c r="C138" t="n">
-        <v>1018295.251668596</v>
+        <v>88161.28237609607</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>373233.5640612092</v>
+        <v>29576.809274969</v>
       </c>
       <c r="C139" t="n">
-        <v>373233.5640612092</v>
+        <v>29576.809274969</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>667533.9846395272</v>
+        <v>57378.64071161709</v>
       </c>
       <c r="C140" t="n">
-        <v>667533.9846395272</v>
+        <v>57378.64071161709</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3665,10 +3665,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1060227.936307194</v>
+        <v>91753.77516485396</v>
       </c>
       <c r="C141" t="n">
-        <v>1060227.936307194</v>
+        <v>91753.77516485396</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>408450.7394384634</v>
+        <v>32680.14239271048</v>
       </c>
       <c r="C142" t="n">
-        <v>408450.7394384634</v>
+        <v>32680.14239271048</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3711,10 +3711,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>845851.7133764767</v>
+        <v>71820.73008222587</v>
       </c>
       <c r="C143" t="n">
-        <v>845851.7133764767</v>
+        <v>71820.73008222587</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3734,10 +3734,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>836565.1459981062</v>
+        <v>75964.0063427314</v>
       </c>
       <c r="C144" t="n">
-        <v>836565.1459981062</v>
+        <v>75964.0063427314</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3757,10 +3757,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>570406.5791394797</v>
+        <v>52367.27892760908</v>
       </c>
       <c r="C145" t="n">
-        <v>570406.5791394797</v>
+        <v>52367.27892760908</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3780,10 +3780,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1039882.912050438</v>
+        <v>91547.01770918527</v>
       </c>
       <c r="C146" t="n">
-        <v>1039882.912050438</v>
+        <v>91547.01770918527</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3803,10 +3803,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>996264.0701968689</v>
+        <v>86687.70698370584</v>
       </c>
       <c r="C147" t="n">
-        <v>996264.0701968689</v>
+        <v>86687.70698370584</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>868190.5378346781</v>
+        <v>79515.99342275505</v>
       </c>
       <c r="C148" t="n">
-        <v>868190.5378346781</v>
+        <v>79515.99342275505</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3849,10 +3849,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1148885.599023571</v>
+        <v>103723.0208227627</v>
       </c>
       <c r="C149" t="n">
-        <v>1148885.599023571</v>
+        <v>103723.0208227627</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>970582.9750955699</v>
+        <v>87948.58729754224</v>
       </c>
       <c r="C150" t="n">
-        <v>970582.9750955699</v>
+        <v>87948.58729754224</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>791681.5767114238</v>
+        <v>72444.286250283</v>
       </c>
       <c r="C151" t="n">
-        <v>791681.5767114238</v>
+        <v>72444.286250283</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3918,10 +3918,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>443668.3963184883</v>
+        <v>41041.45704703964</v>
       </c>
       <c r="C152" t="n">
-        <v>443668.3963184883</v>
+        <v>41041.45704703964</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3941,10 +3941,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>638110.462625962</v>
+        <v>58477.46761289626</v>
       </c>
       <c r="C153" t="n">
-        <v>638110.462625962</v>
+        <v>58477.46761289626</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3964,10 +3964,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>807779.3448003586</v>
+        <v>73727.52305991387</v>
       </c>
       <c r="C154" t="n">
-        <v>807779.3448003586</v>
+        <v>73727.52305991387</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3987,10 +3987,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>570242.0171009797</v>
+        <v>48145.42565029772</v>
       </c>
       <c r="C155" t="n">
-        <v>570242.0171009797</v>
+        <v>48145.42565029772</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4010,10 +4010,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>281151.9651792001</v>
+        <v>22941.99428313066</v>
       </c>
       <c r="C156" t="n">
-        <v>281151.9651792001</v>
+        <v>22941.99428313066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4033,10 +4033,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>264543.4945740858</v>
+        <v>21787.98611417965</v>
       </c>
       <c r="C157" t="n">
-        <v>264543.4945740858</v>
+        <v>21787.98611417965</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4056,10 +4056,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>201124.1761353786</v>
+        <v>16519.11992761977</v>
       </c>
       <c r="C158" t="n">
-        <v>201124.1761353786</v>
+        <v>16519.11992761977</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4079,10 +4079,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>243545.6915537626</v>
+        <v>19751.86349033544</v>
       </c>
       <c r="C159" t="n">
-        <v>243545.6915537626</v>
+        <v>19751.86349033544</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4102,10 +4102,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>222607.762225854</v>
+        <v>18076.95108467559</v>
       </c>
       <c r="C160" t="n">
-        <v>222607.762225854</v>
+        <v>18076.95108467559</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4125,10 +4125,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>242274.3711175066</v>
+        <v>19875.17104909992</v>
       </c>
       <c r="C161" t="n">
-        <v>242274.3711175066</v>
+        <v>19875.17104909992</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4148,10 +4148,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>246131.0430519059</v>
+        <v>20200.70101579682</v>
       </c>
       <c r="C162" t="n">
-        <v>246131.0430519059</v>
+        <v>20200.70101579682</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4171,10 +4171,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>244654.7064727814</v>
+        <v>19880.51842199285</v>
       </c>
       <c r="C163" t="n">
-        <v>244654.7064727814</v>
+        <v>19880.51842199285</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4194,10 +4194,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>608617.0684924223</v>
+        <v>51251.2316215223</v>
       </c>
       <c r="C164" t="n">
-        <v>608617.0684924223</v>
+        <v>51251.2316215223</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4217,10 +4217,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>607904.6308091958</v>
+        <v>51116.27861584946</v>
       </c>
       <c r="C165" t="n">
-        <v>607904.6308091958</v>
+        <v>51116.27861584946</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4240,10 +4240,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>704812.4649186608</v>
+        <v>60212.46076732178</v>
       </c>
       <c r="C166" t="n">
-        <v>704812.4649186608</v>
+        <v>60212.46076732178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>290384.8479809493</v>
+        <v>27135.39302952997</v>
       </c>
       <c r="C167" t="n">
-        <v>290384.8479809493</v>
+        <v>27135.39302952997</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4286,10 +4286,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1093576.990471497</v>
+        <v>98546.41866722681</v>
       </c>
       <c r="C168" t="n">
-        <v>1093576.990471497</v>
+        <v>98546.41866722681</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4309,10 +4309,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>502963.9576657809</v>
+        <v>46506.28773530654</v>
       </c>
       <c r="C169" t="n">
-        <v>502963.9576657809</v>
+        <v>46506.28773530654</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4332,10 +4332,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>912283.3910933377</v>
+        <v>82116.39819506567</v>
       </c>
       <c r="C170" t="n">
-        <v>912283.3910933377</v>
+        <v>82116.39819506567</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4355,10 +4355,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>520527.2006787964</v>
+        <v>47497.73814814514</v>
       </c>
       <c r="C171" t="n">
-        <v>520527.2006787964</v>
+        <v>47497.73814814514</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4378,10 +4378,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>681887.969605851</v>
+        <v>61861.10033799459</v>
       </c>
       <c r="C172" t="n">
-        <v>681887.969605851</v>
+        <v>61861.10033799459</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4401,10 +4401,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>968527.8446526388</v>
+        <v>86762.59127223463</v>
       </c>
       <c r="C173" t="n">
-        <v>968527.8446526388</v>
+        <v>86762.59127223463</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4424,10 +4424,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>609753.5660135943</v>
+        <v>55554.34163067516</v>
       </c>
       <c r="C174" t="n">
-        <v>609753.5660135943</v>
+        <v>55554.34163067516</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>441839.887589726</v>
+        <v>39670.70044678485</v>
       </c>
       <c r="C175" t="n">
-        <v>441839.887589726</v>
+        <v>39670.70044678485</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4470,10 +4470,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>368285.0785978868</v>
+        <v>32801.87718641234</v>
       </c>
       <c r="C176" t="n">
-        <v>368285.0785978868</v>
+        <v>32801.87718641234</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4493,10 +4493,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>585875.6143268417</v>
+        <v>53660.9532442668</v>
       </c>
       <c r="C177" t="n">
-        <v>585875.6143268417</v>
+        <v>53660.9532442668</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4516,10 +4516,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>935661.6957897119</v>
+        <v>84933.51573086003</v>
       </c>
       <c r="C178" t="n">
-        <v>935661.6957897119</v>
+        <v>84933.51573086003</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>247509.4727732102</v>
+        <v>23079.92709529529</v>
       </c>
       <c r="C179" t="n">
-        <v>247509.4727732102</v>
+        <v>23079.92709529529</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>510989.1182044053</v>
+        <v>42037.88586507925</v>
       </c>
       <c r="C180" t="n">
-        <v>510989.1182044053</v>
+        <v>42037.88586507925</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4585,10 +4585,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>654098.1081433231</v>
+        <v>60265.82713530018</v>
       </c>
       <c r="C181" t="n">
-        <v>654098.1081433231</v>
+        <v>60265.82713530018</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>818460.4006172131</v>
+        <v>74387.94974375404</v>
       </c>
       <c r="C182" t="n">
-        <v>818460.4006172131</v>
+        <v>74387.94974375404</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>560093.3660794834</v>
+        <v>51760.09591393452</v>
       </c>
       <c r="C183" t="n">
-        <v>560093.3660794834</v>
+        <v>51760.09591393452</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>682984.0218895993</v>
+        <v>56894.83154989856</v>
       </c>
       <c r="C184" t="n">
-        <v>682984.0218895993</v>
+        <v>56894.83154989856</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1165316.228339376</v>
+        <v>105231.3410427028</v>
       </c>
       <c r="C185" t="n">
-        <v>1165316.228339376</v>
+        <v>105231.3410427028</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>699797.6803298633</v>
+        <v>59700.94893662009</v>
       </c>
       <c r="C186" t="n">
-        <v>699797.6803298633</v>
+        <v>59700.94893662009</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -4723,10 +4723,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>727780.1116034921</v>
+        <v>66835.04651490931</v>
       </c>
       <c r="C187" t="n">
-        <v>727780.1116034921</v>
+        <v>66835.04651490931</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4746,10 +4746,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>807259.6733332002</v>
+        <v>68840.33098613982</v>
       </c>
       <c r="C188" t="n">
-        <v>807259.6733332002</v>
+        <v>68840.33098613982</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4769,10 +4769,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>672911.7772583987</v>
+        <v>56312.44430016159</v>
       </c>
       <c r="C189" t="n">
-        <v>672911.7772583987</v>
+        <v>56312.44430016159</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4792,10 +4792,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>910009.9772179668</v>
+        <v>77704.53621384817</v>
       </c>
       <c r="C190" t="n">
-        <v>910009.9772179668</v>
+        <v>77704.53621384817</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -4815,10 +4815,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1101703.724591339</v>
+        <v>94919.86280610444</v>
       </c>
       <c r="C191" t="n">
-        <v>1101703.724591339</v>
+        <v>94919.86280610444</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4838,10 +4838,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>562258.1205521943</v>
+        <v>48547.3866801211</v>
       </c>
       <c r="C192" t="n">
-        <v>562258.1205521943</v>
+        <v>48547.3866801211</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -4861,10 +4861,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>500543.4842171576</v>
+        <v>39611.09114746356</v>
       </c>
       <c r="C193" t="n">
-        <v>500543.4842171576</v>
+        <v>39611.09114746356</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -4884,10 +4884,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>12166.61835369674</v>
+        <v>266.1003331980137</v>
       </c>
       <c r="C194" t="n">
-        <v>12166.61835369674</v>
+        <v>266.1003331980137</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4907,10 +4907,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>774795.3094897993</v>
+        <v>71223.39902101278</v>
       </c>
       <c r="C195" t="n">
-        <v>774795.3094897993</v>
+        <v>71223.39902101278</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4930,10 +4930,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>655237.7197864251</v>
+        <v>60451.31455088445</v>
       </c>
       <c r="C196" t="n">
-        <v>655237.7197864251</v>
+        <v>60451.31455088445</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4953,10 +4953,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>732312.1991449425</v>
+        <v>66731.14141228035</v>
       </c>
       <c r="C197" t="n">
-        <v>732312.1991449425</v>
+        <v>66731.14141228035</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>680450.7967102784</v>
+        <v>62556.53382094497</v>
       </c>
       <c r="C198" t="n">
-        <v>680450.7967102784</v>
+        <v>62556.53382094497</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4999,10 +4999,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>578858.434739136</v>
+        <v>53378.65264550695</v>
       </c>
       <c r="C199" t="n">
-        <v>578858.434739136</v>
+        <v>53378.65264550695</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5022,10 +5022,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>464948.7990151182</v>
+        <v>43110.81501686746</v>
       </c>
       <c r="C200" t="n">
-        <v>464948.7990151182</v>
+        <v>43110.81501686746</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5045,10 +5045,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>716226.9302536851</v>
+        <v>65774.59517873845</v>
       </c>
       <c r="C201" t="n">
-        <v>716226.9302536851</v>
+        <v>65774.59517873845</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5068,10 +5068,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>477510.2115470769</v>
+        <v>44266.06066352189</v>
       </c>
       <c r="C202" t="n">
-        <v>477510.2115470769</v>
+        <v>44266.06066352189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5091,10 +5091,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>598758.0633068848</v>
+        <v>55215.60368714946</v>
       </c>
       <c r="C203" t="n">
-        <v>598758.0633068848</v>
+        <v>55215.60368714946</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>618710.9794042087</v>
+        <v>56910.47055312482</v>
       </c>
       <c r="C204" t="n">
-        <v>618710.9794042087</v>
+        <v>56910.47055312482</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5137,10 +5137,10 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>706924.1314064796</v>
+        <v>65033.34732156443</v>
       </c>
       <c r="C205" t="n">
-        <v>706924.1314064796</v>
+        <v>65033.34732156443</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5160,10 +5160,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>582339.0067434355</v>
+        <v>47788.18072443015</v>
       </c>
       <c r="C206" t="n">
-        <v>582339.0067434355</v>
+        <v>47788.18072443015</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5183,10 +5183,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>751083.1351103236</v>
+        <v>68838.75158468127</v>
       </c>
       <c r="C207" t="n">
-        <v>751083.1351103236</v>
+        <v>68838.75158468127</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5206,10 +5206,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>554922.9301291975</v>
+        <v>45640.20712060446</v>
       </c>
       <c r="C208" t="n">
-        <v>554922.9301291975</v>
+        <v>45640.20712060446</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5229,10 +5229,10 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>740647.8085844358</v>
+        <v>68009.93067120714</v>
       </c>
       <c r="C209" t="n">
-        <v>740647.8085844358</v>
+        <v>68009.93067120714</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>473584.6373316287</v>
+        <v>43294.43249812862</v>
       </c>
       <c r="C210" t="n">
-        <v>473584.6373316287</v>
+        <v>43294.43249812862</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>621801.2553977161</v>
+        <v>56659.9767254054</v>
       </c>
       <c r="C211" t="n">
-        <v>621801.2553977161</v>
+        <v>56659.9767254054</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5298,10 +5298,10 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1002547.563778371</v>
+        <v>90227.16527223344</v>
       </c>
       <c r="C212" t="n">
-        <v>1002547.563778371</v>
+        <v>90227.16527223344</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>709838.969829608</v>
+        <v>59186.56625248824</v>
       </c>
       <c r="C213" t="n">
-        <v>709838.969829608</v>
+        <v>59186.56625248824</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>653487.8624916181</v>
+        <v>59423.17717588006</v>
       </c>
       <c r="C214" t="n">
-        <v>653487.8624916181</v>
+        <v>59423.17717588006</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -5367,10 +5367,10 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1042744.012010845</v>
+        <v>90468.74895112062</v>
       </c>
       <c r="C215" t="n">
-        <v>1042744.012010845</v>
+        <v>90468.74895112062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -5390,10 +5390,10 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="C216" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -5413,10 +5413,10 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="C217" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5436,10 +5436,10 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>160719.483707649</v>
+        <v>15039.90040298552</v>
       </c>
       <c r="C218" t="n">
-        <v>160719.483707649</v>
+        <v>15039.90040298552</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5459,10 +5459,10 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>163608.8940960121</v>
+        <v>15148.4402487767</v>
       </c>
       <c r="C219" t="n">
-        <v>163608.8940960121</v>
+        <v>15148.4402487767</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5482,10 +5482,10 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="C220" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5505,10 +5505,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="C221" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5528,10 +5528,10 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="C222" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5551,10 +5551,10 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="C223" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -5574,10 +5574,10 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>160719.483707649</v>
+        <v>15039.90040298552</v>
       </c>
       <c r="C224" t="n">
-        <v>160719.483707649</v>
+        <v>15039.90040298552</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -5597,10 +5597,10 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="C225" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -5620,10 +5620,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="C226" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="C227" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="C228" t="n">
-        <v>143133.6797419279</v>
+        <v>13341.90529677474</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -5689,10 +5689,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>200535.6595654472</v>
+        <v>18568.07016244958</v>
       </c>
       <c r="C229" t="n">
-        <v>200535.6595654472</v>
+        <v>18568.07016244958</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -5712,10 +5712,10 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>973765.7936910936</v>
+        <v>88433.69311951124</v>
       </c>
       <c r="C230" t="n">
-        <v>973765.7936910936</v>
+        <v>88433.69311951124</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -5735,10 +5735,10 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1047017.667982117</v>
+        <v>95269.44307056046</v>
       </c>
       <c r="C231" t="n">
-        <v>1047017.667982117</v>
+        <v>95269.44307056046</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>

--- a/outputs-HGR-r202/p__Bacteroidota.xlsx
+++ b/outputs-HGR-r202/p__Bacteroidota.xlsx
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67905.65109610179</v>
+        <v>484070.972648579</v>
       </c>
       <c r="C2" t="n">
-        <v>67905.65109610179</v>
+        <v>484070.972648579</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73193.557380921</v>
+        <v>561354.4331999379</v>
       </c>
       <c r="C3" t="n">
-        <v>73193.557380921</v>
+        <v>561354.4331999379</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39165.1066667001</v>
+        <v>266722.6035723315</v>
       </c>
       <c r="C4" t="n">
-        <v>39165.1066667001</v>
+        <v>266722.6035723315</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84699.118569169</v>
+        <v>589289.6506857412</v>
       </c>
       <c r="C5" t="n">
-        <v>84699.118569169</v>
+        <v>589289.6506857412</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110588.2944461431</v>
+        <v>800560.7013409451</v>
       </c>
       <c r="C6" t="n">
-        <v>110588.2944461431</v>
+        <v>800560.7013409451</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72369.12939650672</v>
+        <v>509562.7277901435</v>
       </c>
       <c r="C7" t="n">
-        <v>72369.12939650672</v>
+        <v>509562.7277901435</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60397.2341762767</v>
+        <v>420737.9217712987</v>
       </c>
       <c r="C8" t="n">
-        <v>60397.2341762767</v>
+        <v>420737.9217712987</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65150.21898170887</v>
+        <v>453679.2065032442</v>
       </c>
       <c r="C9" t="n">
-        <v>65150.21898170887</v>
+        <v>453679.2065032442</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23066.86700135467</v>
+        <v>191699.3857729338</v>
       </c>
       <c r="C10" t="n">
-        <v>23066.86700135467</v>
+        <v>191699.3857729338</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17717.67684637735</v>
+        <v>145411.3009720852</v>
       </c>
       <c r="C11" t="n">
-        <v>17717.67684637735</v>
+        <v>145411.3009720852</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32505.95317151024</v>
+        <v>246440.8487675572</v>
       </c>
       <c r="C12" t="n">
-        <v>32505.95317151024</v>
+        <v>246440.8487675572</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52058.19446293369</v>
+        <v>408250.0928238037</v>
       </c>
       <c r="C13" t="n">
-        <v>52058.19446293369</v>
+        <v>408250.0928238037</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21189.98669684852</v>
+        <v>177765.948733849</v>
       </c>
       <c r="C14" t="n">
-        <v>21189.98669684852</v>
+        <v>177765.948733849</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>58095.40349846886</v>
+        <v>419448.5634145707</v>
       </c>
       <c r="C15" t="n">
-        <v>58095.40349846886</v>
+        <v>419448.5634145707</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27013.68048559494</v>
+        <v>215484.8171808648</v>
       </c>
       <c r="C16" t="n">
-        <v>27013.68048559494</v>
+        <v>215484.8171808648</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101073.267813532</v>
+        <v>750146.8974365938</v>
       </c>
       <c r="C17" t="n">
-        <v>101073.267813532</v>
+        <v>750146.8974365938</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49283.94393255952</v>
+        <v>390192.0558420109</v>
       </c>
       <c r="C18" t="n">
-        <v>49283.94393255952</v>
+        <v>390192.0558420109</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59506.847078554</v>
+        <v>412838.4606416049</v>
       </c>
       <c r="C19" t="n">
-        <v>59506.847078554</v>
+        <v>412838.4606416049</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29685.27370463213</v>
+        <v>244551.5231023011</v>
       </c>
       <c r="C20" t="n">
-        <v>29685.27370463213</v>
+        <v>244551.5231023011</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>49520.32236126419</v>
+        <v>394520.6896228317</v>
       </c>
       <c r="C21" t="n">
-        <v>49520.32236126419</v>
+        <v>394520.6896228317</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -928,10 +928,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29894.57438419963</v>
+        <v>244563.9124226585</v>
       </c>
       <c r="C22" t="n">
-        <v>29894.57438419963</v>
+        <v>244563.9124226585</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>39252.83387026402</v>
+        <v>317754.5836747606</v>
       </c>
       <c r="C23" t="n">
-        <v>39252.83387026402</v>
+        <v>317754.5836747606</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54403.00567060386</v>
+        <v>428389.7675082329</v>
       </c>
       <c r="C24" t="n">
-        <v>54403.00567060386</v>
+        <v>428389.7675082329</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105801.5797147371</v>
+        <v>766313.0338644453</v>
       </c>
       <c r="C25" t="n">
-        <v>105801.5797147371</v>
+        <v>766313.0338644453</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>71339.1659734445</v>
+        <v>501060.4135264269</v>
       </c>
       <c r="C26" t="n">
-        <v>71339.1659734445</v>
+        <v>501060.4135264269</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1043,10 +1043,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>67896.98186911637</v>
+        <v>478306.2497112334</v>
       </c>
       <c r="C27" t="n">
-        <v>67896.98186911637</v>
+        <v>478306.2497112334</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61183.79969146918</v>
+        <v>430719.3847571007</v>
       </c>
       <c r="C28" t="n">
-        <v>61183.79969146918</v>
+        <v>430719.3847571007</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50810.80117270374</v>
+        <v>400213.0441742316</v>
       </c>
       <c r="C29" t="n">
-        <v>50810.80117270374</v>
+        <v>400213.0441742316</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99127.46422298886</v>
+        <v>712357.0517054632</v>
       </c>
       <c r="C30" t="n">
-        <v>99127.46422298886</v>
+        <v>712357.0517054632</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75843.81613017296</v>
+        <v>537298.3159049404</v>
       </c>
       <c r="C31" t="n">
-        <v>75843.81613017296</v>
+        <v>537298.3159049404</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1158,10 +1158,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>36332.59203208941</v>
+        <v>292483.4049898185</v>
       </c>
       <c r="C32" t="n">
-        <v>36332.59203208941</v>
+        <v>292483.4049898185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51398.66064342616</v>
+        <v>361135.7783775047</v>
       </c>
       <c r="C33" t="n">
-        <v>51398.66064342616</v>
+        <v>361135.7783775047</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40178.9029730582</v>
+        <v>277958.8996124638</v>
       </c>
       <c r="C34" t="n">
-        <v>40178.9029730582</v>
+        <v>277958.8996124638</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68757.71794197195</v>
+        <v>480516.8040583928</v>
       </c>
       <c r="C35" t="n">
-        <v>68757.71794197195</v>
+        <v>480516.8040583928</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>83468.54927842415</v>
+        <v>581624.4542629877</v>
       </c>
       <c r="C36" t="n">
-        <v>83468.54927842415</v>
+        <v>581624.4542629877</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51248.47576303684</v>
+        <v>409286.6826038325</v>
       </c>
       <c r="C37" t="n">
-        <v>51248.47576303684</v>
+        <v>409286.6826038325</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>57359.31465322868</v>
+        <v>466973.3870916226</v>
       </c>
       <c r="C38" t="n">
-        <v>57359.31465322868</v>
+        <v>466973.3870916226</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>58731.03242855672</v>
+        <v>414290.8032542983</v>
       </c>
       <c r="C39" t="n">
-        <v>58731.03242855672</v>
+        <v>414290.8032542983</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70635.62191432854</v>
+        <v>495508.3715234676</v>
       </c>
       <c r="C40" t="n">
-        <v>70635.62191432854</v>
+        <v>495508.3715234676</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>70518.71945376169</v>
+        <v>493268.1174871504</v>
       </c>
       <c r="C41" t="n">
-        <v>70518.71945376169</v>
+        <v>493268.1174871504</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>39920.69226271851</v>
+        <v>272484.8354071326</v>
       </c>
       <c r="C42" t="n">
-        <v>39920.69226271851</v>
+        <v>272484.8354071326</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1411,10 +1411,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91577.61075577191</v>
+        <v>682515.6704753482</v>
       </c>
       <c r="C43" t="n">
-        <v>91577.61075577191</v>
+        <v>682515.6704753482</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71788.82768363153</v>
+        <v>501558.0931943281</v>
       </c>
       <c r="C44" t="n">
-        <v>71788.82768363153</v>
+        <v>501558.0931943281</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>77414.52605282418</v>
+        <v>548513.6038019459</v>
       </c>
       <c r="C45" t="n">
-        <v>77414.52605282418</v>
+        <v>548513.6038019459</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>69681.57502312309</v>
+        <v>493426.1780227651</v>
       </c>
       <c r="C46" t="n">
-        <v>69681.57502312309</v>
+        <v>493426.1780227651</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>68212.96526417175</v>
+        <v>529160.0170923362</v>
       </c>
       <c r="C47" t="n">
-        <v>68212.96526417175</v>
+        <v>529160.0170923362</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1526,10 +1526,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>79764.50772234084</v>
+        <v>585758.4715257948</v>
       </c>
       <c r="C48" t="n">
-        <v>79764.50772234084</v>
+        <v>585758.4715257948</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>79355.72391763185</v>
+        <v>564541.0047523398</v>
       </c>
       <c r="C49" t="n">
-        <v>79355.72391763185</v>
+        <v>564541.0047523398</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>83960.36887207469</v>
+        <v>596165.5396841292</v>
       </c>
       <c r="C50" t="n">
-        <v>83960.36887207469</v>
+        <v>596165.5396841292</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>16962.77760204664</v>
+        <v>151321.2740850173</v>
       </c>
       <c r="C51" t="n">
-        <v>16962.77760204664</v>
+        <v>151321.2740850173</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1618,10 +1618,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>88397.73340768811</v>
+        <v>614951.0718228264</v>
       </c>
       <c r="C52" t="n">
-        <v>88397.73340768811</v>
+        <v>614951.0718228264</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>107545.166681499</v>
+        <v>794569.6451078419</v>
       </c>
       <c r="C53" t="n">
-        <v>107545.166681499</v>
+        <v>794569.6451078419</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1664,10 +1664,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>85208.26532271258</v>
+        <v>590958.2658815926</v>
       </c>
       <c r="C54" t="n">
-        <v>85208.26532271258</v>
+        <v>590958.2658815926</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1687,10 +1687,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>60633.73809919927</v>
+        <v>447027.8742583366</v>
       </c>
       <c r="C55" t="n">
-        <v>60633.73809919927</v>
+        <v>447027.8742583366</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1710,10 +1710,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>70275.01936019123</v>
+        <v>517877.2370050254</v>
       </c>
       <c r="C56" t="n">
-        <v>70275.01936019123</v>
+        <v>517877.2370050254</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1733,10 +1733,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>70129.34928717818</v>
+        <v>490841.9707452392</v>
       </c>
       <c r="C57" t="n">
-        <v>70129.34928717818</v>
+        <v>490841.9707452392</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>61752.43376200722</v>
+        <v>437822.7111271525</v>
       </c>
       <c r="C58" t="n">
-        <v>61752.43376200722</v>
+        <v>437822.7111271525</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1779,10 +1779,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>34701.44575113602</v>
+        <v>285885.2329700615</v>
       </c>
       <c r="C59" t="n">
-        <v>34701.44575113602</v>
+        <v>285885.2329700615</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>64055.64349226565</v>
+        <v>445751.1303673269</v>
       </c>
       <c r="C60" t="n">
-        <v>64055.64349226565</v>
+        <v>445751.1303673269</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>49333.2239827181</v>
+        <v>341100.5724858821</v>
       </c>
       <c r="C61" t="n">
-        <v>49333.2239827181</v>
+        <v>341100.5724858821</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>66123.56957367076</v>
+        <v>508557.6415314694</v>
       </c>
       <c r="C62" t="n">
-        <v>66123.56957367076</v>
+        <v>508557.6415314694</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>33162.06661080947</v>
+        <v>285861.2000546986</v>
       </c>
       <c r="C63" t="n">
-        <v>33162.06661080947</v>
+        <v>285861.2000546986</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>75317.54734357617</v>
+        <v>516534.8151555029</v>
       </c>
       <c r="C64" t="n">
-        <v>75317.54734357617</v>
+        <v>516534.8151555029</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1917,10 +1917,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>59878.83018627299</v>
+        <v>418684.4399589848</v>
       </c>
       <c r="C65" t="n">
-        <v>59878.83018627299</v>
+        <v>418684.4399589848</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>83564.28816651076</v>
+        <v>639601.2299600817</v>
       </c>
       <c r="C66" t="n">
-        <v>83564.28816651076</v>
+        <v>639601.2299600817</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>68102.0406819054</v>
+        <v>478511.3102733362</v>
       </c>
       <c r="C67" t="n">
-        <v>68102.0406819054</v>
+        <v>478511.3102733362</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>43021.98922957428</v>
+        <v>291861.4060171582</v>
       </c>
       <c r="C68" t="n">
-        <v>43021.98922957428</v>
+        <v>291861.4060171582</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>16551.33985230955</v>
+        <v>131263.6557632992</v>
       </c>
       <c r="C69" t="n">
-        <v>16551.33985230955</v>
+        <v>131263.6557632992</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2032,10 +2032,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>31266.47242804569</v>
+        <v>244413.5619694163</v>
       </c>
       <c r="C70" t="n">
-        <v>31266.47242804569</v>
+        <v>244413.5619694163</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>113692.4853462521</v>
+        <v>817990.9954407337</v>
       </c>
       <c r="C71" t="n">
-        <v>113692.4853462521</v>
+        <v>817990.9954407337</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>116690.1780206788</v>
+        <v>837992.1602931356</v>
       </c>
       <c r="C72" t="n">
-        <v>116690.1780206788</v>
+        <v>837992.1602931356</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2101,10 +2101,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>50758.11171014952</v>
+        <v>348545.1383446867</v>
       </c>
       <c r="C73" t="n">
-        <v>50758.11171014952</v>
+        <v>348545.1383446867</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>60497.6260898958</v>
+        <v>422619.0836494871</v>
       </c>
       <c r="C74" t="n">
-        <v>60497.6260898958</v>
+        <v>422619.0836494871</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2147,10 +2147,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>41604.18157734786</v>
+        <v>328350.8804766777</v>
       </c>
       <c r="C75" t="n">
-        <v>41604.18157734786</v>
+        <v>328350.8804766777</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2170,10 +2170,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>45550.79008764555</v>
+        <v>312550.7415630381</v>
       </c>
       <c r="C76" t="n">
-        <v>45550.79008764555</v>
+        <v>312550.7415630381</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>76798.55357326289</v>
+        <v>548111.5131452349</v>
       </c>
       <c r="C77" t="n">
-        <v>76798.55357326289</v>
+        <v>548111.5131452349</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>49266.66068258397</v>
+        <v>374936.4185398174</v>
       </c>
       <c r="C78" t="n">
-        <v>49266.66068258397</v>
+        <v>374936.4185398174</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>50544.83248683423</v>
+        <v>346975.2517343884</v>
       </c>
       <c r="C79" t="n">
-        <v>50544.83248683423</v>
+        <v>346975.2517343884</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2262,10 +2262,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>66265.05411022273</v>
+        <v>463153.9074288037</v>
       </c>
       <c r="C80" t="n">
-        <v>66265.05411022273</v>
+        <v>463153.9074288037</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2285,10 +2285,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>65951.82244066415</v>
+        <v>462193.9115451496</v>
       </c>
       <c r="C81" t="n">
-        <v>65951.82244066415</v>
+        <v>462193.9115451496</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2308,10 +2308,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>110249.7293780574</v>
+        <v>785254.6327757374</v>
       </c>
       <c r="C82" t="n">
-        <v>110249.7293780574</v>
+        <v>785254.6327757374</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2331,10 +2331,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>60304.3183558452</v>
+        <v>467324.9674493715</v>
       </c>
       <c r="C83" t="n">
-        <v>60304.3183558452</v>
+        <v>467324.9674493715</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2354,10 +2354,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>71844.21657648405</v>
+        <v>502741.8018344819</v>
       </c>
       <c r="C84" t="n">
-        <v>71844.21657648405</v>
+        <v>502741.8018344819</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>70178.67382996617</v>
+        <v>544740.7494202423</v>
       </c>
       <c r="C85" t="n">
-        <v>70178.67382996617</v>
+        <v>544740.7494202423</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>34136.1546221551</v>
+        <v>256888.3608326493</v>
       </c>
       <c r="C86" t="n">
-        <v>34136.1546221551</v>
+        <v>256888.3608326493</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>49049.15666328229</v>
+        <v>334985.9630420518</v>
       </c>
       <c r="C87" t="n">
-        <v>49049.15666328229</v>
+        <v>334985.9630420518</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>52183.29329278656</v>
+        <v>358422.1373797049</v>
       </c>
       <c r="C88" t="n">
-        <v>52183.29329278656</v>
+        <v>358422.1373797049</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2469,10 +2469,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>97513.74296061642</v>
+        <v>686614.8702654834</v>
       </c>
       <c r="C89" t="n">
-        <v>97513.74296061642</v>
+        <v>686614.8702654834</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2492,10 +2492,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>69295.82519644467</v>
+        <v>482030.6130303813</v>
       </c>
       <c r="C90" t="n">
-        <v>69295.82519644467</v>
+        <v>482030.6130303813</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>49410.3800377679</v>
+        <v>340881.4371514259</v>
       </c>
       <c r="C91" t="n">
-        <v>49410.3800377679</v>
+        <v>340881.4371514259</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>27135.39302952997</v>
+        <v>181412.0468496953</v>
       </c>
       <c r="C92" t="n">
-        <v>27135.39302952997</v>
+        <v>181412.0468496953</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>55891.79336203021</v>
+        <v>388747.5628886195</v>
       </c>
       <c r="C93" t="n">
-        <v>55891.79336203021</v>
+        <v>388747.5628886195</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2584,10 +2584,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>98111.43995626728</v>
+        <v>730298.5173507159</v>
       </c>
       <c r="C94" t="n">
-        <v>98111.43995626728</v>
+        <v>730298.5173507159</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2607,10 +2607,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>69207.36309854029</v>
+        <v>480104.7691717661</v>
       </c>
       <c r="C95" t="n">
-        <v>69207.36309854029</v>
+        <v>480104.7691717661</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2630,10 +2630,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>74236.23049060239</v>
+        <v>521961.0260324841</v>
       </c>
       <c r="C96" t="n">
-        <v>74236.23049060239</v>
+        <v>521961.0260324841</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2653,10 +2653,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>92876.95573243032</v>
+        <v>667842.9479141996</v>
       </c>
       <c r="C97" t="n">
-        <v>92876.95573243032</v>
+        <v>667842.9479141996</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2676,10 +2676,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>121771.4790011945</v>
+        <v>877221.3818185941</v>
       </c>
       <c r="C98" t="n">
-        <v>121771.4790011945</v>
+        <v>877221.3818185941</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>67984.88150240023</v>
+        <v>475078.7059464572</v>
       </c>
       <c r="C99" t="n">
-        <v>67984.88150240023</v>
+        <v>475078.7059464572</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2722,10 +2722,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>54995.44070482436</v>
+        <v>385890.0274639856</v>
       </c>
       <c r="C100" t="n">
-        <v>54995.44070482436</v>
+        <v>385890.0274639856</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>95240.46435380219</v>
+        <v>664617.3221679069</v>
       </c>
       <c r="C101" t="n">
-        <v>95240.46435380219</v>
+        <v>664617.3221679069</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>108237.139418384</v>
+        <v>774984.3832367966</v>
       </c>
       <c r="C102" t="n">
-        <v>108237.139418384</v>
+        <v>774984.3832367966</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>63051.56647486657</v>
+        <v>440466.5483031131</v>
       </c>
       <c r="C103" t="n">
-        <v>63051.56647486657</v>
+        <v>440466.5483031131</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>69461.87612946099</v>
+        <v>490554.9809059637</v>
       </c>
       <c r="C104" t="n">
-        <v>69461.87612946099</v>
+        <v>490554.9809059637</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>26739.55805255588</v>
+        <v>192518.4700615121</v>
       </c>
       <c r="C105" t="n">
-        <v>26739.55805255588</v>
+        <v>192518.4700615121</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2860,10 +2860,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>57102.23356690003</v>
+        <v>396114.0119032309</v>
       </c>
       <c r="C106" t="n">
-        <v>57102.23356690003</v>
+        <v>396114.0119032309</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>77643.81779224958</v>
+        <v>543186.6954277768</v>
       </c>
       <c r="C107" t="n">
-        <v>77643.81779224958</v>
+        <v>543186.6954277768</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>71146.66895468466</v>
+        <v>500281.4570040972</v>
       </c>
       <c r="C108" t="n">
-        <v>71146.66895468466</v>
+        <v>500281.4570040972</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2929,10 +2929,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>79199.67423992099</v>
+        <v>563066.5698703575</v>
       </c>
       <c r="C109" t="n">
-        <v>79199.67423992099</v>
+        <v>563066.5698703575</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2952,10 +2952,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>49380.39008831598</v>
+        <v>346280.1577725894</v>
       </c>
       <c r="C110" t="n">
-        <v>49380.39008831598</v>
+        <v>346280.1577725894</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2975,10 +2975,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>63357.29832664835</v>
+        <v>441715.0416391355</v>
       </c>
       <c r="C111" t="n">
-        <v>63357.29832664835</v>
+        <v>441715.0416391355</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2998,10 +2998,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>85121.72121618192</v>
+        <v>626827.1593530362</v>
       </c>
       <c r="C112" t="n">
-        <v>85121.72121618192</v>
+        <v>626827.1593530362</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3021,10 +3021,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>48295.07377544105</v>
+        <v>331326.8526331414</v>
       </c>
       <c r="C113" t="n">
-        <v>48295.07377544105</v>
+        <v>331326.8526331414</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3044,10 +3044,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>67128.96693721652</v>
+        <v>488130.5393476202</v>
       </c>
       <c r="C114" t="n">
-        <v>67128.96693721652</v>
+        <v>488130.5393476202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3067,10 +3067,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>106670.6147086774</v>
+        <v>754544.4223462294</v>
       </c>
       <c r="C115" t="n">
-        <v>106670.6147086774</v>
+        <v>754544.4223462294</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3090,10 +3090,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>75967.03922772621</v>
+        <v>533068.0847737669</v>
       </c>
       <c r="C116" t="n">
-        <v>75967.03922772621</v>
+        <v>533068.0847737669</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>80870.57402421083</v>
+        <v>568759.8486337222</v>
       </c>
       <c r="C117" t="n">
-        <v>80870.57402421083</v>
+        <v>568759.8486337222</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3136,10 +3136,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>52549.45163590689</v>
+        <v>366327.5579281676</v>
       </c>
       <c r="C118" t="n">
-        <v>52549.45163590689</v>
+        <v>366327.5579281676</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>65009.08104934983</v>
+        <v>452024.3055840016</v>
       </c>
       <c r="C119" t="n">
-        <v>65009.08104934983</v>
+        <v>452024.3055840016</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3182,10 +3182,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>44929.07807005417</v>
+        <v>309004.3447617321</v>
       </c>
       <c r="C120" t="n">
-        <v>44929.07807005417</v>
+        <v>309004.3447617321</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3205,10 +3205,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>39571.78912641454</v>
+        <v>320719.6647894554</v>
       </c>
       <c r="C121" t="n">
-        <v>39571.78912641454</v>
+        <v>320719.6647894554</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>75794.37598059201</v>
+        <v>530554.6929545209</v>
       </c>
       <c r="C122" t="n">
-        <v>75794.37598059201</v>
+        <v>530554.6929545209</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3251,10 +3251,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>101397.5032301961</v>
+        <v>721748.9801074268</v>
       </c>
       <c r="C123" t="n">
-        <v>101397.5032301961</v>
+        <v>721748.9801074268</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3274,10 +3274,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>64855.24677031893</v>
+        <v>454626.844715081</v>
       </c>
       <c r="C124" t="n">
-        <v>64855.24677031893</v>
+        <v>454626.844715081</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3297,10 +3297,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>107410.1948566198</v>
+        <v>769247.621186182</v>
       </c>
       <c r="C125" t="n">
-        <v>107410.1948566198</v>
+        <v>769247.621186182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3320,10 +3320,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>71720.37697895947</v>
+        <v>509741.8434688539</v>
       </c>
       <c r="C126" t="n">
-        <v>71720.37697895947</v>
+        <v>509741.8434688539</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>68000.97691177874</v>
+        <v>510129.2110699192</v>
       </c>
       <c r="C127" t="n">
-        <v>68000.97691177874</v>
+        <v>510129.2110699192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3366,10 +3366,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>57149.64056970718</v>
+        <v>418316.6476735976</v>
       </c>
       <c r="C128" t="n">
-        <v>57149.64056970718</v>
+        <v>418316.6476735976</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3389,10 +3389,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>114383.3931068766</v>
+        <v>811034.5179053699</v>
       </c>
       <c r="C129" t="n">
-        <v>114383.3931068766</v>
+        <v>811034.5179053699</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>77165.03504119143</v>
+        <v>556469.3648896066</v>
       </c>
       <c r="C130" t="n">
-        <v>77165.03504119143</v>
+        <v>556469.3648896066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3435,10 +3435,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>72127.778506006</v>
+        <v>555002.2999317346</v>
       </c>
       <c r="C131" t="n">
-        <v>72127.778506006</v>
+        <v>555002.2999317346</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3458,10 +3458,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>71078.99206197784</v>
+        <v>549045.5234405607</v>
       </c>
       <c r="C132" t="n">
-        <v>71078.99206197784</v>
+        <v>549045.5234405607</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3481,10 +3481,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>54495.17798056405</v>
+        <v>425016.2315459845</v>
       </c>
       <c r="C133" t="n">
-        <v>54495.17798056405</v>
+        <v>425016.2315459845</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3504,10 +3504,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>61543.01363975549</v>
+        <v>447503.5842484038</v>
       </c>
       <c r="C134" t="n">
-        <v>61543.01363975549</v>
+        <v>447503.5842484038</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3527,10 +3527,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>92069.27195887016</v>
+        <v>652619.0502645012</v>
       </c>
       <c r="C135" t="n">
-        <v>92069.27195887016</v>
+        <v>652619.0502645012</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>66142.90495925587</v>
+        <v>486635.7475168101</v>
       </c>
       <c r="C136" t="n">
-        <v>66142.90495925587</v>
+        <v>486635.7475168101</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>89893.00596761383</v>
+        <v>656999.9969972466</v>
       </c>
       <c r="C137" t="n">
-        <v>89893.00596761383</v>
+        <v>656999.9969972466</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3596,10 +3596,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>88161.28237609607</v>
+        <v>664721.9128395094</v>
       </c>
       <c r="C138" t="n">
-        <v>88161.28237609607</v>
+        <v>664721.9128395094</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>29576.809274969</v>
+        <v>251247.4549039074</v>
       </c>
       <c r="C139" t="n">
-        <v>29576.809274969</v>
+        <v>251247.4549039074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>57378.64071161709</v>
+        <v>439844.5985686362</v>
       </c>
       <c r="C140" t="n">
-        <v>57378.64071161709</v>
+        <v>439844.5985686362</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3665,10 +3665,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>91753.77516485396</v>
+        <v>695812.9279995593</v>
       </c>
       <c r="C141" t="n">
-        <v>91753.77516485396</v>
+        <v>695812.9279995593</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>32680.14239271048</v>
+        <v>273649.1874671121</v>
       </c>
       <c r="C142" t="n">
-        <v>32680.14239271048</v>
+        <v>273649.1874671121</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3711,10 +3711,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>71820.73008222587</v>
+        <v>554385.4653623539</v>
       </c>
       <c r="C143" t="n">
-        <v>71820.73008222587</v>
+        <v>554385.4653623539</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3734,10 +3734,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>75964.0063427314</v>
+        <v>540268.5630950185</v>
       </c>
       <c r="C144" t="n">
-        <v>75964.0063427314</v>
+        <v>540268.5630950185</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3757,10 +3757,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>52367.27892760908</v>
+        <v>363553.5717739638</v>
       </c>
       <c r="C145" t="n">
-        <v>52367.27892760908</v>
+        <v>363553.5717739638</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3780,10 +3780,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>91547.01770918527</v>
+        <v>670351.1270149439</v>
       </c>
       <c r="C146" t="n">
-        <v>91547.01770918527</v>
+        <v>670351.1270149439</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3803,10 +3803,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>86687.70698370584</v>
+        <v>656617.4618070241</v>
       </c>
       <c r="C147" t="n">
-        <v>86687.70698370584</v>
+        <v>656617.4618070241</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>79515.99342275505</v>
+        <v>556786.6451331448</v>
       </c>
       <c r="C148" t="n">
-        <v>79515.99342275505</v>
+        <v>556786.6451331448</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3849,10 +3849,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>103723.0208227627</v>
+        <v>733637.5092589927</v>
       </c>
       <c r="C149" t="n">
-        <v>103723.0208227627</v>
+        <v>733637.5092589927</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>87948.58729754224</v>
+        <v>615901.1000344872</v>
       </c>
       <c r="C150" t="n">
-        <v>87948.58729754224</v>
+        <v>615901.1000344872</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>72444.286250283</v>
+        <v>508407.4999434073</v>
       </c>
       <c r="C151" t="n">
-        <v>72444.286250283</v>
+        <v>508407.4999434073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3918,10 +3918,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>41041.45704703964</v>
+        <v>280961.165351774</v>
       </c>
       <c r="C152" t="n">
-        <v>41041.45704703964</v>
+        <v>280961.165351774</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3941,10 +3941,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>58477.46761289626</v>
+        <v>409252.3232168482</v>
       </c>
       <c r="C153" t="n">
-        <v>58477.46761289626</v>
+        <v>409252.3232168482</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3964,10 +3964,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>73727.52305991387</v>
+        <v>520269.6939473646</v>
       </c>
       <c r="C154" t="n">
-        <v>73727.52305991387</v>
+        <v>520269.6939473646</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3987,10 +3987,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>48145.42565029772</v>
+        <v>382978.0728706938</v>
       </c>
       <c r="C155" t="n">
-        <v>48145.42565029772</v>
+        <v>382978.0728706938</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4010,10 +4010,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>22941.99428313066</v>
+        <v>190148.7239458454</v>
       </c>
       <c r="C156" t="n">
-        <v>22941.99428313066</v>
+        <v>190148.7239458454</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4033,10 +4033,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>21787.98611417965</v>
+        <v>178269.1542337216</v>
       </c>
       <c r="C157" t="n">
-        <v>21787.98611417965</v>
+        <v>178269.1542337216</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4056,10 +4056,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>16519.11992761977</v>
+        <v>133431.8785801712</v>
       </c>
       <c r="C158" t="n">
-        <v>16519.11992761977</v>
+        <v>133431.8785801712</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4079,10 +4079,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>19751.86349033544</v>
+        <v>163777.9129653794</v>
       </c>
       <c r="C159" t="n">
-        <v>19751.86349033544</v>
+        <v>163777.9129653794</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4102,10 +4102,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>18076.95108467559</v>
+        <v>150337.3849539098</v>
       </c>
       <c r="C160" t="n">
-        <v>18076.95108467559</v>
+        <v>150337.3849539098</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4125,10 +4125,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>19875.17104909992</v>
+        <v>162351.3236623984</v>
       </c>
       <c r="C161" t="n">
-        <v>19875.17104909992</v>
+        <v>162351.3236623984</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4148,10 +4148,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>20200.70101579682</v>
+        <v>166078.0975874313</v>
       </c>
       <c r="C162" t="n">
-        <v>20200.70101579682</v>
+        <v>166078.0975874313</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4171,10 +4171,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>19880.51842199285</v>
+        <v>165291.6546420254</v>
       </c>
       <c r="C163" t="n">
-        <v>19880.51842199285</v>
+        <v>165291.6546420254</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4194,10 +4194,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>51251.2316215223</v>
+        <v>409468.5727839003</v>
       </c>
       <c r="C164" t="n">
-        <v>51251.2316215223</v>
+        <v>409468.5727839003</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4217,10 +4217,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>51116.27861584946</v>
+        <v>410088.6933710302</v>
       </c>
       <c r="C165" t="n">
-        <v>51116.27861584946</v>
+        <v>410088.6933710302</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4240,10 +4240,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>60212.46076732178</v>
+        <v>470359.1713595744</v>
       </c>
       <c r="C166" t="n">
-        <v>60212.46076732178</v>
+        <v>470359.1713595744</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>27135.39302952997</v>
+        <v>181412.0468496953</v>
       </c>
       <c r="C167" t="n">
-        <v>27135.39302952997</v>
+        <v>181412.0468496953</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4286,10 +4286,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>98546.41866722681</v>
+        <v>708290.401867787</v>
       </c>
       <c r="C168" t="n">
-        <v>98546.41866722681</v>
+        <v>708290.401867787</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4309,10 +4309,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>46506.28773530654</v>
+        <v>318504.9324813064</v>
       </c>
       <c r="C169" t="n">
-        <v>46506.28773530654</v>
+        <v>318504.9324813064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4332,10 +4332,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>82116.39819506567</v>
+        <v>576473.4647022466</v>
       </c>
       <c r="C170" t="n">
-        <v>82116.39819506567</v>
+        <v>576473.4647022466</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4355,10 +4355,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>47497.73814814514</v>
+        <v>331650.8573999266</v>
       </c>
       <c r="C171" t="n">
-        <v>47497.73814814514</v>
+        <v>331650.8573999266</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4378,10 +4378,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>61861.10033799459</v>
+        <v>438126.4799880382</v>
       </c>
       <c r="C172" t="n">
-        <v>61861.10033799459</v>
+        <v>438126.4799880382</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4401,10 +4401,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>86762.59127223463</v>
+        <v>628114.5149919234</v>
       </c>
       <c r="C173" t="n">
-        <v>86762.59127223463</v>
+        <v>628114.5149919234</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4424,10 +4424,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>55554.34163067516</v>
+        <v>382902.9478871163</v>
       </c>
       <c r="C174" t="n">
-        <v>55554.34163067516</v>
+        <v>382902.9478871163</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>39670.70044678485</v>
+        <v>270904.9448597354</v>
       </c>
       <c r="C175" t="n">
-        <v>39670.70044678485</v>
+        <v>270904.9448597354</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4470,10 +4470,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>32801.87718641234</v>
+        <v>223484.7031953429</v>
       </c>
       <c r="C176" t="n">
-        <v>32801.87718641234</v>
+        <v>223484.7031953429</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4493,10 +4493,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>53660.9532442668</v>
+        <v>373139.3459784173</v>
       </c>
       <c r="C177" t="n">
-        <v>53660.9532442668</v>
+        <v>373139.3459784173</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4516,10 +4516,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>84933.51573086003</v>
+        <v>602306.6265727967</v>
       </c>
       <c r="C178" t="n">
-        <v>84933.51573086003</v>
+        <v>602306.6265727967</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>23079.92709529529</v>
+        <v>153558.7317875766</v>
       </c>
       <c r="C179" t="n">
-        <v>23079.92709529529</v>
+        <v>153558.7317875766</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>42037.88586507925</v>
+        <v>336523.286542505</v>
       </c>
       <c r="C180" t="n">
-        <v>42037.88586507925</v>
+        <v>336523.286542505</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4585,10 +4585,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>60265.82713530018</v>
+        <v>417196.3767658341</v>
       </c>
       <c r="C181" t="n">
-        <v>60265.82713530018</v>
+        <v>417196.3767658341</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>74387.94974375404</v>
+        <v>526409.1973071926</v>
       </c>
       <c r="C182" t="n">
-        <v>74387.94974375404</v>
+        <v>526409.1973071926</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>51760.09591393452</v>
+        <v>356961.1371321768</v>
       </c>
       <c r="C183" t="n">
-        <v>51760.09591393452</v>
+        <v>356961.1371321768</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>56894.83154989856</v>
+        <v>450084.5410608428</v>
       </c>
       <c r="C184" t="n">
-        <v>56894.83154989856</v>
+        <v>450084.5410608428</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>105231.3410427028</v>
+        <v>743779.6330387458</v>
       </c>
       <c r="C185" t="n">
-        <v>105231.3410427028</v>
+        <v>743779.6330387458</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>59700.94893662009</v>
+        <v>468186.5854898634</v>
       </c>
       <c r="C186" t="n">
-        <v>59700.94893662009</v>
+        <v>468186.5854898634</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -4723,10 +4723,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>66835.04651490931</v>
+        <v>466373.5263670433</v>
       </c>
       <c r="C187" t="n">
-        <v>66835.04651490931</v>
+        <v>466373.5263670433</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4746,10 +4746,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>68840.33098613982</v>
+        <v>525576.7956699834</v>
       </c>
       <c r="C188" t="n">
-        <v>68840.33098613982</v>
+        <v>525576.7956699834</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4769,10 +4769,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>56312.44430016159</v>
+        <v>439412.2613458954</v>
       </c>
       <c r="C189" t="n">
-        <v>56312.44430016159</v>
+        <v>439412.2613458954</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4792,10 +4792,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>77704.53621384817</v>
+        <v>597952.2258788288</v>
       </c>
       <c r="C190" t="n">
-        <v>77704.53621384817</v>
+        <v>597952.2258788288</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -4815,10 +4815,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>94919.86280610444</v>
+        <v>719287.2122688602</v>
       </c>
       <c r="C191" t="n">
-        <v>94919.86280610444</v>
+        <v>719287.2122688602</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4838,10 +4838,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>48547.3866801211</v>
+        <v>360955.2185363446</v>
       </c>
       <c r="C192" t="n">
-        <v>48547.3866801211</v>
+        <v>360955.2185363446</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -4861,10 +4861,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>39611.09114746356</v>
+        <v>359793.3597329605</v>
       </c>
       <c r="C193" t="n">
-        <v>39611.09114746356</v>
+        <v>359793.3597329605</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -4884,10 +4884,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>266.1003331980137</v>
+        <v>1395.987731437053</v>
       </c>
       <c r="C194" t="n">
-        <v>266.1003331980137</v>
+        <v>1395.987731437053</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4907,10 +4907,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>71223.39902101278</v>
+        <v>495857.3836817616</v>
       </c>
       <c r="C195" t="n">
-        <v>71223.39902101278</v>
+        <v>495857.3836817616</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4930,10 +4930,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>60451.31455088445</v>
+        <v>418275.7575425935</v>
       </c>
       <c r="C196" t="n">
-        <v>60451.31455088445</v>
+        <v>418275.7575425935</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4953,10 +4953,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>66731.14141228035</v>
+        <v>471420.2887660568</v>
       </c>
       <c r="C197" t="n">
-        <v>66731.14141228035</v>
+        <v>471420.2887660568</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>62556.53382094497</v>
+        <v>434215.3729903148</v>
       </c>
       <c r="C198" t="n">
-        <v>62556.53382094497</v>
+        <v>434215.3729903148</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4999,10 +4999,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>53378.65264550695</v>
+        <v>368305.5304059024</v>
       </c>
       <c r="C199" t="n">
-        <v>53378.65264550695</v>
+        <v>368305.5304059024</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5022,10 +5022,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>43110.81501686746</v>
+        <v>293156.4723684147</v>
       </c>
       <c r="C200" t="n">
-        <v>43110.81501686746</v>
+        <v>293156.4723684147</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5045,10 +5045,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>65774.59517873845</v>
+        <v>457270.279549966</v>
       </c>
       <c r="C201" t="n">
-        <v>65774.59517873845</v>
+        <v>457270.279549966</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5068,10 +5068,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>44266.06066352189</v>
+        <v>301880.1218357749</v>
       </c>
       <c r="C202" t="n">
-        <v>44266.06066352189</v>
+        <v>301880.1218357749</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5091,10 +5091,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>55215.60368714946</v>
+        <v>380902.3215741966</v>
       </c>
       <c r="C203" t="n">
-        <v>55215.60368714946</v>
+        <v>380902.3215741966</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>56910.47055312482</v>
+        <v>395478.116141401</v>
       </c>
       <c r="C204" t="n">
-        <v>56910.47055312482</v>
+        <v>395478.116141401</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5137,10 +5137,10 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>65033.34732156443</v>
+        <v>451696.6465260678</v>
       </c>
       <c r="C205" t="n">
-        <v>65033.34732156443</v>
+        <v>451696.6465260678</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5160,10 +5160,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>47788.18072443015</v>
+        <v>391033.1072416581</v>
       </c>
       <c r="C206" t="n">
-        <v>47788.18072443015</v>
+        <v>391033.1072416581</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5183,10 +5183,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>68838.75158468127</v>
+        <v>479781.4928826046</v>
       </c>
       <c r="C207" t="n">
-        <v>68838.75158468127</v>
+        <v>479781.4928826046</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5206,10 +5206,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>45640.20712060446</v>
+        <v>367561.2115999103</v>
       </c>
       <c r="C208" t="n">
-        <v>45640.20712060446</v>
+        <v>367561.2115999103</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5229,10 +5229,10 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>68009.93067120714</v>
+        <v>474635.3873489656</v>
       </c>
       <c r="C209" t="n">
-        <v>68009.93067120714</v>
+        <v>474635.3873489656</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>43294.43249812862</v>
+        <v>300813.7039364265</v>
       </c>
       <c r="C210" t="n">
-        <v>43294.43249812862</v>
+        <v>300813.7039364265</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>56659.9767254054</v>
+        <v>398586.0103238316</v>
       </c>
       <c r="C211" t="n">
-        <v>56659.9767254054</v>
+        <v>398586.0103238316</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5298,10 +5298,10 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>90227.16527223344</v>
+        <v>639986.9623374682</v>
       </c>
       <c r="C212" t="n">
-        <v>90227.16527223344</v>
+        <v>639986.9623374682</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>59186.56625248824</v>
+        <v>470041.1512255169</v>
       </c>
       <c r="C213" t="n">
-        <v>59186.56625248824</v>
+        <v>470041.1512255169</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>59423.17717588006</v>
+        <v>418668.3094982368</v>
       </c>
       <c r="C214" t="n">
-        <v>59423.17717588006</v>
+        <v>418668.3094982368</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -5367,10 +5367,10 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>90468.74895112062</v>
+        <v>679314.1136688099</v>
       </c>
       <c r="C215" t="n">
-        <v>90468.74895112062</v>
+        <v>679314.1136688099</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -5390,10 +5390,10 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="C216" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -5413,10 +5413,10 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="C217" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5436,10 +5436,10 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>15039.90040298552</v>
+        <v>95848.46675963509</v>
       </c>
       <c r="C218" t="n">
-        <v>15039.90040298552</v>
+        <v>95848.46675963509</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5459,10 +5459,10 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>15148.4402487767</v>
+        <v>97914.35687515985</v>
       </c>
       <c r="C219" t="n">
-        <v>15148.4402487767</v>
+        <v>97914.35687515985</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5482,10 +5482,10 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="C220" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5505,10 +5505,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="C221" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5528,10 +5528,10 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="C222" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5551,10 +5551,10 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="C223" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -5574,10 +5574,10 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>15039.90040298552</v>
+        <v>95848.46675963509</v>
       </c>
       <c r="C224" t="n">
-        <v>15039.90040298552</v>
+        <v>95848.46675963509</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -5597,10 +5597,10 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="C225" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -5620,10 +5620,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="C226" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="C227" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="C228" t="n">
-        <v>13341.90529677474</v>
+        <v>85092.10284729548</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -5689,10 +5689,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>18568.07016244958</v>
+        <v>121983.8645760417</v>
       </c>
       <c r="C229" t="n">
-        <v>18568.07016244958</v>
+        <v>121983.8645760417</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -5712,10 +5712,10 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>88433.69311951124</v>
+        <v>615953.5047294799</v>
       </c>
       <c r="C230" t="n">
-        <v>88433.69311951124</v>
+        <v>615953.5047294799</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -5735,10 +5735,10 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>95269.44307056046</v>
+        <v>663256.0572869328</v>
       </c>
       <c r="C231" t="n">
-        <v>95269.44307056046</v>
+        <v>663256.0572869328</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
